--- a/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.708412939273046</v>
+        <v>2.708412939273103</v>
       </c>
       <c r="C2">
-        <v>2.06660558815031</v>
+        <v>2.066605588151447</v>
       </c>
       <c r="D2">
-        <v>0.2080644056647571</v>
+        <v>0.2080644056654251</v>
       </c>
       <c r="E2">
-        <v>0.01673510270490386</v>
+        <v>0.0167351027048257</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.603422937611214</v>
+        <v>9.603422937611128</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2312633263795831</v>
+        <v>0.2312633263796045</v>
       </c>
       <c r="L2">
-        <v>0.8084843356514853</v>
+        <v>0.8084843356514284</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.286021199314746</v>
+        <v>2.286021199314689</v>
       </c>
       <c r="C3">
-        <v>1.761061862230292</v>
+        <v>1.761061862229781</v>
       </c>
       <c r="D3">
-        <v>0.1775108304408661</v>
+        <v>0.1775108304406245</v>
       </c>
       <c r="E3">
-        <v>0.01536482811946094</v>
+        <v>0.0153648281192682</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.352593776813279</v>
+        <v>8.352593776813251</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1995068536778746</v>
+        <v>0.1995068536778817</v>
       </c>
       <c r="L3">
-        <v>0.6892628873647553</v>
+        <v>0.689262887364734</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.039477941843472</v>
+        <v>2.0394779418437</v>
       </c>
       <c r="C4">
-        <v>1.580353582597297</v>
+        <v>1.580353582597411</v>
       </c>
       <c r="D4">
-        <v>0.1594329186326888</v>
+        <v>0.1594329186325751</v>
       </c>
       <c r="E4">
-        <v>0.01455901215713773</v>
+        <v>0.01455901215710487</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.608556992449621</v>
+        <v>7.608556992449564</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1806741868370878</v>
+        <v>0.1806741868370807</v>
       </c>
       <c r="L4">
-        <v>0.6191396481638165</v>
+        <v>0.6191396481638094</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.941685691691248</v>
+        <v>1.941685691691021</v>
       </c>
       <c r="C5">
-        <v>1.508142963255978</v>
+        <v>1.508142963255921</v>
       </c>
       <c r="D5">
-        <v>0.1522078301488108</v>
+        <v>0.1522078301487966</v>
       </c>
       <c r="E5">
-        <v>0.01423784804967543</v>
+        <v>0.01423784804966743</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.310288991039414</v>
+        <v>7.310288991039357</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1731393089130577</v>
+        <v>0.1731393089130329</v>
       </c>
       <c r="L5">
-        <v>0.5912093477817066</v>
+        <v>0.5912093477816995</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.925594735724559</v>
+        <v>1.925594735724246</v>
       </c>
       <c r="C6">
         <v>1.496230771447188</v>
       </c>
       <c r="D6">
-        <v>0.1510158926024729</v>
+        <v>0.1510158926026861</v>
       </c>
       <c r="E6">
-        <v>0.01418490975635134</v>
+        <v>0.01418490975622078</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.261030816527011</v>
+        <v>7.26103081652704</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.171895843136987</v>
+        <v>0.1718958431370261</v>
       </c>
       <c r="L6">
-        <v>0.5866071435451445</v>
+        <v>0.5866071435451801</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.038148901114624</v>
+        <v>2.038148901114539</v>
       </c>
       <c r="C7">
-        <v>1.579374305003796</v>
+        <v>1.579374305003341</v>
       </c>
       <c r="D7">
-        <v>0.1593349403014059</v>
+        <v>0.1593349403013207</v>
       </c>
       <c r="E7">
-        <v>0.01455465368612519</v>
+        <v>0.01455465368611542</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.604515800858564</v>
+        <v>7.604515800858621</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1805720374308564</v>
+        <v>0.1805720374308777</v>
       </c>
       <c r="L7">
-        <v>0.6187605123010442</v>
+        <v>0.6187605123010371</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.559756478925522</v>
+        <v>2.559756478925692</v>
       </c>
       <c r="C8">
-        <v>1.959622849744846</v>
+        <v>1.959622849744335</v>
       </c>
       <c r="D8">
-        <v>0.1973684995395644</v>
+        <v>0.1973684995395359</v>
       </c>
       <c r="E8">
-        <v>0.01625411691304013</v>
+        <v>0.01625411691303036</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2201572717031013</v>
+        <v>0.2201572717031439</v>
       </c>
       <c r="L8">
-        <v>0.7666532450201871</v>
+        <v>0.7666532450201586</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.71491820479099</v>
+        <v>3.714918204791161</v>
       </c>
       <c r="C9">
-        <v>2.777086015318673</v>
+        <v>2.777086015319355</v>
       </c>
       <c r="D9">
-        <v>0.279024402360335</v>
+        <v>0.2790244023608039</v>
       </c>
       <c r="E9">
-        <v>0.01996739764908906</v>
+        <v>0.01996739764911126</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.4804773848557</v>
+        <v>12.48047738485562</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3046143644996491</v>
+        <v>0.3046143644995851</v>
       </c>
       <c r="L9">
-        <v>1.088315711359741</v>
+        <v>1.088315711359854</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.700793703964052</v>
+        <v>4.700793703963996</v>
       </c>
       <c r="C10">
-        <v>3.452685922916714</v>
+        <v>3.452685922915919</v>
       </c>
       <c r="D10">
-        <v>0.3463546673850857</v>
+        <v>0.346354667385512</v>
       </c>
       <c r="E10">
-        <v>0.02311327106964001</v>
+        <v>0.02311327106975991</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.17840409961036</v>
+        <v>15.1784040996103</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3736248575854759</v>
+        <v>0.3736248575854901</v>
       </c>
       <c r="L10">
-        <v>1.357120948714694</v>
+        <v>1.357120948714638</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.197746089353359</v>
+        <v>5.197746089353132</v>
       </c>
       <c r="C11">
-        <v>3.786543234721989</v>
+        <v>3.786543234720909</v>
       </c>
       <c r="D11">
-        <v>0.3795634951307534</v>
+        <v>0.3795634951311513</v>
       </c>
       <c r="E11">
-        <v>0.02469821649621018</v>
+        <v>0.02469821649607518</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.49833767068134</v>
+        <v>16.49833767068128</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4074306353061701</v>
+        <v>0.4074306353061843</v>
       </c>
       <c r="L11">
-        <v>1.490769318766937</v>
+        <v>1.490769318766894</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.395187709207789</v>
+        <v>5.395187709207619</v>
       </c>
       <c r="C12">
-        <v>3.918024752135352</v>
+        <v>3.918024752135295</v>
       </c>
       <c r="D12">
-        <v>0.3926292236462956</v>
+        <v>0.3926292236458835</v>
       </c>
       <c r="E12">
-        <v>0.02532845726250521</v>
+        <v>0.02532845726267929</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.01574120722501</v>
+        <v>17.01574120722506</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.420686934539745</v>
+        <v>0.4206869345397379</v>
       </c>
       <c r="L12">
-        <v>1.543536901878014</v>
+        <v>1.543536901878028</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.352207678336754</v>
+        <v>5.352207678337322</v>
       </c>
       <c r="C13">
-        <v>3.889458147248888</v>
+        <v>3.889458147249002</v>
       </c>
       <c r="D13">
-        <v>0.3897911068697937</v>
+        <v>0.3897911068697226</v>
       </c>
       <c r="E13">
-        <v>0.02519122584183542</v>
+        <v>0.02519122584194733</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.90344327297566</v>
+        <v>16.90344327297584</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4178095910577184</v>
+        <v>0.4178095910576403</v>
       </c>
       <c r="L13">
         <v>1.532066061729026</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.213788062442177</v>
+        <v>5.213788062442006</v>
       </c>
       <c r="C14">
-        <v>3.797250192960973</v>
+        <v>3.797250192960632</v>
       </c>
       <c r="D14">
-        <v>0.3806277565067404</v>
+        <v>0.380627756506513</v>
       </c>
       <c r="E14">
-        <v>0.02474940763634415</v>
+        <v>0.02474940763630507</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.54052281003175</v>
+        <v>16.5405228100322</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4085113698985552</v>
+        <v>0.4085113698983989</v>
       </c>
       <c r="L14">
-        <v>1.495063611266801</v>
+        <v>1.495063611266787</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.130289733220025</v>
+        <v>5.130289733219342</v>
       </c>
       <c r="C15">
-        <v>3.741473300165126</v>
+        <v>3.741473300165183</v>
       </c>
       <c r="D15">
-        <v>0.3750830553176741</v>
+        <v>0.3750830553177309</v>
       </c>
       <c r="E15">
-        <v>0.02448298403808558</v>
+        <v>0.02448298403805005</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4028790109086273</v>
+        <v>0.4028790109086486</v>
       </c>
       <c r="L15">
-        <v>1.472698302017434</v>
+        <v>1.472698302017406</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,13 +947,13 @@
         <v>4.669469520928089</v>
       </c>
       <c r="C16">
-        <v>3.431497897292104</v>
+        <v>3.431497897291763</v>
       </c>
       <c r="D16">
-        <v>0.3442455890097023</v>
+        <v>0.3442455890101286</v>
       </c>
       <c r="E16">
-        <v>0.0230133987291028</v>
+        <v>0.02301339872903529</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.09433900294226</v>
+        <v>15.09433900294215</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3714725308574387</v>
+        <v>0.3714725308575808</v>
       </c>
       <c r="L16">
-        <v>1.348656145979604</v>
+        <v>1.348656145979632</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.400575644411845</v>
+        <v>4.400575644412129</v>
       </c>
       <c r="C17">
         <v>3.248888652251992</v>
       </c>
       <c r="D17">
-        <v>0.3260613939810355</v>
+        <v>0.3260613939810213</v>
       </c>
       <c r="E17">
-        <v>0.02215603254802456</v>
+        <v>0.02215603254806275</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.36835912903842</v>
+        <v>14.36835912903854</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3528896828563006</v>
+        <v>0.3528896828562509</v>
       </c>
       <c r="L17">
-        <v>1.275790833349845</v>
+        <v>1.275790833349888</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.250303880395393</v>
+        <v>4.250303880394881</v>
       </c>
       <c r="C18">
-        <v>3.14625905871435</v>
+        <v>3.146259058713326</v>
       </c>
       <c r="D18">
-        <v>0.3158361501603508</v>
+        <v>0.3158361501604219</v>
       </c>
       <c r="E18">
-        <v>0.0216767726885605</v>
+        <v>0.02167677268853563</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.95919362601393</v>
+        <v>13.95919362601384</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3424202848936488</v>
+        <v>0.3424202848936346</v>
       </c>
       <c r="L18">
-        <v>1.234911013085338</v>
+        <v>1.234911013085345</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.200120962222854</v>
+        <v>4.200120962222741</v>
       </c>
       <c r="C19">
-        <v>3.111891817819242</v>
+        <v>3.111891817819128</v>
       </c>
       <c r="D19">
-        <v>0.3124112130251717</v>
+        <v>0.3124112130248733</v>
       </c>
       <c r="E19">
-        <v>0.0215166905803601</v>
+        <v>0.02151669058033256</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3389104032368451</v>
+        <v>0.338910403236909</v>
       </c>
       <c r="L19">
-        <v>1.22123361332396</v>
+        <v>1.221233613324017</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.428731577658994</v>
+        <v>4.428731577659221</v>
       </c>
       <c r="C20">
-        <v>3.268071419787532</v>
+        <v>3.268071419786907</v>
       </c>
       <c r="D20">
-        <v>0.3279721964056819</v>
+        <v>0.3279721964055966</v>
       </c>
       <c r="E20">
-        <v>0.02224581653942259</v>
+        <v>0.02224581653940039</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.44474531847885</v>
+        <v>14.4447453184782</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0.3548445281178587</v>
       </c>
       <c r="L20">
-        <v>1.283437603628414</v>
+        <v>1.283437603628386</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.254171555692324</v>
+        <v>5.254171555692778</v>
       </c>
       <c r="C21">
-        <v>3.824184471934302</v>
+        <v>3.824184471933904</v>
       </c>
       <c r="D21">
-        <v>0.3833047821074729</v>
+        <v>0.3833047821070608</v>
       </c>
       <c r="E21">
-        <v>0.02487828560809646</v>
+        <v>0.0248782856080858</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4112290898543947</v>
+        <v>0.4112290898544444</v>
       </c>
       <c r="L21">
-        <v>1.505868439799855</v>
+        <v>1.505868439799926</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.849368944777837</v>
+        <v>5.849368944777552</v>
       </c>
       <c r="C22">
-        <v>4.218068694236649</v>
+        <v>4.218068694235626</v>
       </c>
       <c r="D22">
-        <v>0.4224167504421104</v>
+        <v>0.4224167504421246</v>
       </c>
       <c r="E22">
-        <v>0.0267802799128436</v>
+        <v>0.02678027991290222</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.19129844149842</v>
+        <v>18.1912984414983</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4508121547383652</v>
+        <v>0.4508121547383226</v>
       </c>
       <c r="L22">
         <v>1.664218923985359</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.525599943497411</v>
+        <v>5.52559994349798</v>
       </c>
       <c r="C23">
-        <v>4.004518089923067</v>
+        <v>4.004518089923806</v>
       </c>
       <c r="D23">
-        <v>0.4012202195548724</v>
+        <v>0.401220219554574</v>
       </c>
       <c r="E23">
-        <v>0.02574499955453824</v>
+        <v>0.02574499955460574</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.35535779460764</v>
+        <v>17.35535779460832</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4293892624826725</v>
+        <v>0.4293892624826796</v>
       </c>
       <c r="L23">
-        <v>1.57828861601493</v>
+        <v>1.578288616015001</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.415988987684727</v>
+        <v>4.415988987684841</v>
       </c>
       <c r="C24">
-        <v>3.25939164265742</v>
+        <v>3.259391642657192</v>
       </c>
       <c r="D24">
-        <v>0.3271076174200402</v>
+        <v>0.3271076174198981</v>
       </c>
       <c r="E24">
-        <v>0.0222051832268253</v>
+        <v>0.02220518322685194</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.41018584863696</v>
+        <v>14.41018584863733</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3539600831892287</v>
+        <v>0.35396008318925</v>
       </c>
       <c r="L24">
-        <v>1.279977385099912</v>
+        <v>1.279977385099997</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.383305739766683</v>
+        <v>3.383305739766399</v>
       </c>
       <c r="C25">
-        <v>2.545508218017346</v>
+        <v>2.545508218017176</v>
       </c>
       <c r="D25">
-        <v>0.2559106147517696</v>
+        <v>0.255910614751798</v>
       </c>
       <c r="E25">
-        <v>0.01890605260021339</v>
+        <v>0.01890605260030576</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.5473245576718</v>
+        <v>11.54732455767169</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2807877245438988</v>
+        <v>0.280787724543913</v>
       </c>
       <c r="L25">
-        <v>0.9967499232295935</v>
+        <v>0.9967499232296007</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.708412939273103</v>
+        <v>2.708412939273046</v>
       </c>
       <c r="C2">
-        <v>2.066605588151447</v>
+        <v>2.06660558815031</v>
       </c>
       <c r="D2">
-        <v>0.2080644056654251</v>
+        <v>0.2080644056647571</v>
       </c>
       <c r="E2">
-        <v>0.0167351027048257</v>
+        <v>0.01673510270490386</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.603422937611128</v>
+        <v>9.603422937611214</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2312633263796045</v>
+        <v>0.2312633263795831</v>
       </c>
       <c r="L2">
-        <v>0.8084843356514284</v>
+        <v>0.8084843356514853</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.286021199314689</v>
+        <v>2.286021199314746</v>
       </c>
       <c r="C3">
-        <v>1.761061862229781</v>
+        <v>1.761061862230292</v>
       </c>
       <c r="D3">
-        <v>0.1775108304406245</v>
+        <v>0.1775108304408661</v>
       </c>
       <c r="E3">
-        <v>0.0153648281192682</v>
+        <v>0.01536482811946094</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.352593776813251</v>
+        <v>8.352593776813279</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1995068536778817</v>
+        <v>0.1995068536778746</v>
       </c>
       <c r="L3">
-        <v>0.689262887364734</v>
+        <v>0.6892628873647553</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.0394779418437</v>
+        <v>2.039477941843472</v>
       </c>
       <c r="C4">
-        <v>1.580353582597411</v>
+        <v>1.580353582597297</v>
       </c>
       <c r="D4">
-        <v>0.1594329186325751</v>
+        <v>0.1594329186326888</v>
       </c>
       <c r="E4">
-        <v>0.01455901215710487</v>
+        <v>0.01455901215713773</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.608556992449564</v>
+        <v>7.608556992449621</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1806741868370807</v>
+        <v>0.1806741868370878</v>
       </c>
       <c r="L4">
-        <v>0.6191396481638094</v>
+        <v>0.6191396481638165</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.941685691691021</v>
+        <v>1.941685691691248</v>
       </c>
       <c r="C5">
-        <v>1.508142963255921</v>
+        <v>1.508142963255978</v>
       </c>
       <c r="D5">
-        <v>0.1522078301487966</v>
+        <v>0.1522078301488108</v>
       </c>
       <c r="E5">
-        <v>0.01423784804966743</v>
+        <v>0.01423784804967543</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.310288991039357</v>
+        <v>7.310288991039414</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1731393089130329</v>
+        <v>0.1731393089130577</v>
       </c>
       <c r="L5">
-        <v>0.5912093477816995</v>
+        <v>0.5912093477817066</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.925594735724246</v>
+        <v>1.925594735724559</v>
       </c>
       <c r="C6">
         <v>1.496230771447188</v>
       </c>
       <c r="D6">
-        <v>0.1510158926026861</v>
+        <v>0.1510158926024729</v>
       </c>
       <c r="E6">
-        <v>0.01418490975622078</v>
+        <v>0.01418490975635134</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.26103081652704</v>
+        <v>7.261030816527011</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1718958431370261</v>
+        <v>0.171895843136987</v>
       </c>
       <c r="L6">
-        <v>0.5866071435451801</v>
+        <v>0.5866071435451445</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.038148901114539</v>
+        <v>2.038148901114624</v>
       </c>
       <c r="C7">
-        <v>1.579374305003341</v>
+        <v>1.579374305003796</v>
       </c>
       <c r="D7">
-        <v>0.1593349403013207</v>
+        <v>0.1593349403014059</v>
       </c>
       <c r="E7">
-        <v>0.01455465368611542</v>
+        <v>0.01455465368612519</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.604515800858621</v>
+        <v>7.604515800858564</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1805720374308777</v>
+        <v>0.1805720374308564</v>
       </c>
       <c r="L7">
-        <v>0.6187605123010371</v>
+        <v>0.6187605123010442</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.559756478925692</v>
+        <v>2.559756478925522</v>
       </c>
       <c r="C8">
-        <v>1.959622849744335</v>
+        <v>1.959622849744846</v>
       </c>
       <c r="D8">
-        <v>0.1973684995395359</v>
+        <v>0.1973684995395644</v>
       </c>
       <c r="E8">
-        <v>0.01625411691303036</v>
+        <v>0.01625411691304013</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2201572717031439</v>
+        <v>0.2201572717031013</v>
       </c>
       <c r="L8">
-        <v>0.7666532450201586</v>
+        <v>0.7666532450201871</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.714918204791161</v>
+        <v>3.71491820479099</v>
       </c>
       <c r="C9">
-        <v>2.777086015319355</v>
+        <v>2.777086015318673</v>
       </c>
       <c r="D9">
-        <v>0.2790244023608039</v>
+        <v>0.279024402360335</v>
       </c>
       <c r="E9">
-        <v>0.01996739764911126</v>
+        <v>0.01996739764908906</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.48047738485562</v>
+        <v>12.4804773848557</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3046143644995851</v>
+        <v>0.3046143644996491</v>
       </c>
       <c r="L9">
-        <v>1.088315711359854</v>
+        <v>1.088315711359741</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.700793703963996</v>
+        <v>4.700793703964052</v>
       </c>
       <c r="C10">
-        <v>3.452685922915919</v>
+        <v>3.452685922916714</v>
       </c>
       <c r="D10">
-        <v>0.346354667385512</v>
+        <v>0.3463546673850857</v>
       </c>
       <c r="E10">
-        <v>0.02311327106975991</v>
+        <v>0.02311327106964001</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.1784040996103</v>
+        <v>15.17840409961036</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3736248575854901</v>
+        <v>0.3736248575854759</v>
       </c>
       <c r="L10">
-        <v>1.357120948714638</v>
+        <v>1.357120948714694</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.197746089353132</v>
+        <v>5.197746089353359</v>
       </c>
       <c r="C11">
-        <v>3.786543234720909</v>
+        <v>3.786543234721989</v>
       </c>
       <c r="D11">
-        <v>0.3795634951311513</v>
+        <v>0.3795634951307534</v>
       </c>
       <c r="E11">
-        <v>0.02469821649607518</v>
+        <v>0.02469821649621018</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.49833767068128</v>
+        <v>16.49833767068134</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4074306353061843</v>
+        <v>0.4074306353061701</v>
       </c>
       <c r="L11">
-        <v>1.490769318766894</v>
+        <v>1.490769318766937</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.395187709207619</v>
+        <v>5.395187709207789</v>
       </c>
       <c r="C12">
-        <v>3.918024752135295</v>
+        <v>3.918024752135352</v>
       </c>
       <c r="D12">
-        <v>0.3926292236458835</v>
+        <v>0.3926292236462956</v>
       </c>
       <c r="E12">
-        <v>0.02532845726267929</v>
+        <v>0.02532845726250521</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.01574120722506</v>
+        <v>17.01574120722501</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4206869345397379</v>
+        <v>0.420686934539745</v>
       </c>
       <c r="L12">
-        <v>1.543536901878028</v>
+        <v>1.543536901878014</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.352207678337322</v>
+        <v>5.352207678336754</v>
       </c>
       <c r="C13">
-        <v>3.889458147249002</v>
+        <v>3.889458147248888</v>
       </c>
       <c r="D13">
-        <v>0.3897911068697226</v>
+        <v>0.3897911068697937</v>
       </c>
       <c r="E13">
-        <v>0.02519122584194733</v>
+        <v>0.02519122584183542</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.90344327297584</v>
+        <v>16.90344327297566</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4178095910576403</v>
+        <v>0.4178095910577184</v>
       </c>
       <c r="L13">
         <v>1.532066061729026</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.213788062442006</v>
+        <v>5.213788062442177</v>
       </c>
       <c r="C14">
-        <v>3.797250192960632</v>
+        <v>3.797250192960973</v>
       </c>
       <c r="D14">
-        <v>0.380627756506513</v>
+        <v>0.3806277565067404</v>
       </c>
       <c r="E14">
-        <v>0.02474940763630507</v>
+        <v>0.02474940763634415</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.5405228100322</v>
+        <v>16.54052281003175</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4085113698983989</v>
+        <v>0.4085113698985552</v>
       </c>
       <c r="L14">
-        <v>1.495063611266787</v>
+        <v>1.495063611266801</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.130289733219342</v>
+        <v>5.130289733220025</v>
       </c>
       <c r="C15">
-        <v>3.741473300165183</v>
+        <v>3.741473300165126</v>
       </c>
       <c r="D15">
-        <v>0.3750830553177309</v>
+        <v>0.3750830553176741</v>
       </c>
       <c r="E15">
-        <v>0.02448298403805005</v>
+        <v>0.02448298403808558</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4028790109086486</v>
+        <v>0.4028790109086273</v>
       </c>
       <c r="L15">
-        <v>1.472698302017406</v>
+        <v>1.472698302017434</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,13 +947,13 @@
         <v>4.669469520928089</v>
       </c>
       <c r="C16">
-        <v>3.431497897291763</v>
+        <v>3.431497897292104</v>
       </c>
       <c r="D16">
-        <v>0.3442455890101286</v>
+        <v>0.3442455890097023</v>
       </c>
       <c r="E16">
-        <v>0.02301339872903529</v>
+        <v>0.0230133987291028</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.09433900294215</v>
+        <v>15.09433900294226</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3714725308575808</v>
+        <v>0.3714725308574387</v>
       </c>
       <c r="L16">
-        <v>1.348656145979632</v>
+        <v>1.348656145979604</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.400575644412129</v>
+        <v>4.400575644411845</v>
       </c>
       <c r="C17">
         <v>3.248888652251992</v>
       </c>
       <c r="D17">
-        <v>0.3260613939810213</v>
+        <v>0.3260613939810355</v>
       </c>
       <c r="E17">
-        <v>0.02215603254806275</v>
+        <v>0.02215603254802456</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.36835912903854</v>
+        <v>14.36835912903842</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3528896828562509</v>
+        <v>0.3528896828563006</v>
       </c>
       <c r="L17">
-        <v>1.275790833349888</v>
+        <v>1.275790833349845</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.250303880394881</v>
+        <v>4.250303880395393</v>
       </c>
       <c r="C18">
-        <v>3.146259058713326</v>
+        <v>3.14625905871435</v>
       </c>
       <c r="D18">
-        <v>0.3158361501604219</v>
+        <v>0.3158361501603508</v>
       </c>
       <c r="E18">
-        <v>0.02167677268853563</v>
+        <v>0.0216767726885605</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.95919362601384</v>
+        <v>13.95919362601393</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3424202848936346</v>
+        <v>0.3424202848936488</v>
       </c>
       <c r="L18">
-        <v>1.234911013085345</v>
+        <v>1.234911013085338</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.200120962222741</v>
+        <v>4.200120962222854</v>
       </c>
       <c r="C19">
-        <v>3.111891817819128</v>
+        <v>3.111891817819242</v>
       </c>
       <c r="D19">
-        <v>0.3124112130248733</v>
+        <v>0.3124112130251717</v>
       </c>
       <c r="E19">
-        <v>0.02151669058033256</v>
+        <v>0.0215166905803601</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.338910403236909</v>
+        <v>0.3389104032368451</v>
       </c>
       <c r="L19">
-        <v>1.221233613324017</v>
+        <v>1.22123361332396</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.428731577659221</v>
+        <v>4.428731577658994</v>
       </c>
       <c r="C20">
-        <v>3.268071419786907</v>
+        <v>3.268071419787532</v>
       </c>
       <c r="D20">
-        <v>0.3279721964055966</v>
+        <v>0.3279721964056819</v>
       </c>
       <c r="E20">
-        <v>0.02224581653940039</v>
+        <v>0.02224581653942259</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.4447453184782</v>
+        <v>14.44474531847885</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0.3548445281178587</v>
       </c>
       <c r="L20">
-        <v>1.283437603628386</v>
+        <v>1.283437603628414</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.254171555692778</v>
+        <v>5.254171555692324</v>
       </c>
       <c r="C21">
-        <v>3.824184471933904</v>
+        <v>3.824184471934302</v>
       </c>
       <c r="D21">
-        <v>0.3833047821070608</v>
+        <v>0.3833047821074729</v>
       </c>
       <c r="E21">
-        <v>0.0248782856080858</v>
+        <v>0.02487828560809646</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4112290898544444</v>
+        <v>0.4112290898543947</v>
       </c>
       <c r="L21">
-        <v>1.505868439799926</v>
+        <v>1.505868439799855</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.849368944777552</v>
+        <v>5.849368944777837</v>
       </c>
       <c r="C22">
-        <v>4.218068694235626</v>
+        <v>4.218068694236649</v>
       </c>
       <c r="D22">
-        <v>0.4224167504421246</v>
+        <v>0.4224167504421104</v>
       </c>
       <c r="E22">
-        <v>0.02678027991290222</v>
+        <v>0.0267802799128436</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.1912984414983</v>
+        <v>18.19129844149842</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4508121547383226</v>
+        <v>0.4508121547383652</v>
       </c>
       <c r="L22">
         <v>1.664218923985359</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.52559994349798</v>
+        <v>5.525599943497411</v>
       </c>
       <c r="C23">
-        <v>4.004518089923806</v>
+        <v>4.004518089923067</v>
       </c>
       <c r="D23">
-        <v>0.401220219554574</v>
+        <v>0.4012202195548724</v>
       </c>
       <c r="E23">
-        <v>0.02574499955460574</v>
+        <v>0.02574499955453824</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.35535779460832</v>
+        <v>17.35535779460764</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4293892624826796</v>
+        <v>0.4293892624826725</v>
       </c>
       <c r="L23">
-        <v>1.578288616015001</v>
+        <v>1.57828861601493</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.415988987684841</v>
+        <v>4.415988987684727</v>
       </c>
       <c r="C24">
-        <v>3.259391642657192</v>
+        <v>3.25939164265742</v>
       </c>
       <c r="D24">
-        <v>0.3271076174198981</v>
+        <v>0.3271076174200402</v>
       </c>
       <c r="E24">
-        <v>0.02220518322685194</v>
+        <v>0.0222051832268253</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.41018584863733</v>
+        <v>14.41018584863696</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.35396008318925</v>
+        <v>0.3539600831892287</v>
       </c>
       <c r="L24">
-        <v>1.279977385099997</v>
+        <v>1.279977385099912</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.383305739766399</v>
+        <v>3.383305739766683</v>
       </c>
       <c r="C25">
-        <v>2.545508218017176</v>
+        <v>2.545508218017346</v>
       </c>
       <c r="D25">
-        <v>0.255910614751798</v>
+        <v>0.2559106147517696</v>
       </c>
       <c r="E25">
-        <v>0.01890605260030576</v>
+        <v>0.01890605260021339</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.54732455767169</v>
+        <v>11.5473245576718</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.280787724543913</v>
+        <v>0.2807877245438988</v>
       </c>
       <c r="L25">
-        <v>0.9967499232296007</v>
+        <v>0.9967499232295935</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.708412939273046</v>
+        <v>2.67105610345493</v>
       </c>
       <c r="C2">
-        <v>2.06660558815031</v>
+        <v>2.047297148284201</v>
       </c>
       <c r="D2">
-        <v>0.2080644056647571</v>
+        <v>0.2066734980123357</v>
       </c>
       <c r="E2">
-        <v>0.01673510270490386</v>
+        <v>0.01525644300855244</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000770103139934861</v>
       </c>
       <c r="H2">
-        <v>9.603422937611214</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.608054851709113</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2312633263795831</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8084843356514853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.2301882853906463</v>
+      </c>
+      <c r="M2">
+        <v>0.8023661837320688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.286021199314746</v>
+        <v>2.256566776510169</v>
       </c>
       <c r="C3">
-        <v>1.761061862230292</v>
+        <v>1.746303912753774</v>
       </c>
       <c r="D3">
-        <v>0.1775108304408661</v>
+        <v>0.1763639540372708</v>
       </c>
       <c r="E3">
-        <v>0.01536482811946094</v>
+        <v>0.01391641210693884</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007860463358395535</v>
       </c>
       <c r="H3">
-        <v>8.352593776813279</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.366019561324919</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1995068536778746</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6892628873647553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1986641721421591</v>
+      </c>
+      <c r="M3">
+        <v>0.6846985684040376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.039477941843472</v>
+        <v>2.014737305783626</v>
       </c>
       <c r="C4">
-        <v>1.580353582597297</v>
+        <v>1.568303104707752</v>
       </c>
       <c r="D4">
-        <v>0.1594329186326888</v>
+        <v>0.1584255117703037</v>
       </c>
       <c r="E4">
-        <v>0.01455901215713773</v>
+        <v>0.01312777349775107</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007959090605269395</v>
       </c>
       <c r="H4">
-        <v>7.608556992449621</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.627008822811035</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1806741868370878</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6191396481638165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1799653784374939</v>
+      </c>
+      <c r="M4">
+        <v>0.6154944441584078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.941685691691248</v>
+        <v>1.918843368016269</v>
       </c>
       <c r="C5">
-        <v>1.508142963255978</v>
+        <v>1.497180930245349</v>
       </c>
       <c r="D5">
-        <v>0.1522078301488108</v>
+        <v>0.1512552139186738</v>
       </c>
       <c r="E5">
-        <v>0.01423784804967543</v>
+        <v>0.01281332385495748</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007999558538476082</v>
       </c>
       <c r="H5">
-        <v>7.310288991039414</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.330715250249341</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1731393089130577</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5912093477817066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1724833334052782</v>
+      </c>
+      <c r="M5">
+        <v>0.5879325200529593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.925594735724559</v>
+        <v>1.903066568702855</v>
       </c>
       <c r="C6">
-        <v>1.496230771447188</v>
+        <v>1.48544875031223</v>
       </c>
       <c r="D6">
-        <v>0.1510158926024729</v>
+        <v>0.1500722650140176</v>
       </c>
       <c r="E6">
-        <v>0.01418490975635134</v>
+        <v>0.01276148489372808</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008006297324493876</v>
       </c>
       <c r="H6">
-        <v>7.261030816527011</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.28178098524856</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.171895843136987</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5866071435451445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1712485489014277</v>
+      </c>
+      <c r="M6">
+        <v>0.5833911778197134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.038148901114624</v>
+        <v>2.013433943613563</v>
       </c>
       <c r="C7">
-        <v>1.579374305003796</v>
+        <v>1.567338558412075</v>
       </c>
       <c r="D7">
-        <v>0.1593349403014059</v>
+        <v>0.1583282799867192</v>
       </c>
       <c r="E7">
-        <v>0.01455465368612519</v>
+        <v>0.01312350666037698</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007959635137038288</v>
       </c>
       <c r="H7">
-        <v>7.604515800858564</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7.622994534012946</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1805720374308564</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6187605123010442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1798639479521604</v>
+      </c>
+      <c r="M7">
+        <v>0.6151202982777306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.559756478925522</v>
+        <v>2.525161345800996</v>
       </c>
       <c r="C8">
-        <v>1.959622849744846</v>
+        <v>1.941906030138341</v>
       </c>
       <c r="D8">
-        <v>0.1973684995395644</v>
+        <v>0.1960642664229511</v>
       </c>
       <c r="E8">
-        <v>0.01625411691304013</v>
+        <v>0.01478621782484346</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007755910808173975</v>
       </c>
       <c r="H8">
-        <v>9.16644428037921</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.174199459887632</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2201572717031013</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7666532450201871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2191645056483082</v>
+      </c>
+      <c r="M8">
+        <v>0.7610798768227127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.71491820479099</v>
+        <v>3.659106426066899</v>
       </c>
       <c r="C9">
-        <v>2.777086015318673</v>
+        <v>2.747123891003298</v>
       </c>
       <c r="D9">
-        <v>0.279024402360335</v>
+        <v>0.2770198721516266</v>
       </c>
       <c r="E9">
-        <v>0.01996739764908906</v>
+        <v>0.01841246523665863</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007357147493338298</v>
       </c>
       <c r="H9">
-        <v>12.4804773848557</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.4630107536415</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3046143644996491</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.088315711359741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.3029635942263482</v>
+      </c>
+      <c r="M9">
+        <v>1.078514370957166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.700793703964052</v>
+        <v>4.626742543175396</v>
       </c>
       <c r="C10">
-        <v>3.452685922916714</v>
+        <v>3.41220129808579</v>
       </c>
       <c r="D10">
-        <v>0.3463546673850857</v>
+        <v>0.3436931606259321</v>
       </c>
       <c r="E10">
-        <v>0.02311327106964001</v>
+        <v>0.02147731802419006</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007055381881088234</v>
       </c>
       <c r="H10">
-        <v>15.17840409961036</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.13732824468838</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3736248575854759</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.357120948714694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.3713682582140549</v>
+      </c>
+      <c r="M10">
+        <v>1.343618455898365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.197746089353359</v>
+        <v>5.114236703349832</v>
       </c>
       <c r="C11">
-        <v>3.786543234721989</v>
+        <v>3.740617022731215</v>
       </c>
       <c r="D11">
-        <v>0.3795634951307534</v>
+        <v>0.3765447297340359</v>
       </c>
       <c r="E11">
-        <v>0.02469821649621018</v>
+        <v>0.02301869324476691</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006913198881526306</v>
       </c>
       <c r="H11">
-        <v>16.49833767068134</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.44445568930814</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4074306353061701</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.490769318766937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.4048482839071141</v>
+      </c>
+      <c r="M11">
+        <v>1.475328222460689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.395187709207789</v>
+        <v>5.307848069506861</v>
       </c>
       <c r="C12">
-        <v>3.918024752135352</v>
+        <v>3.869898909311587</v>
       </c>
       <c r="D12">
-        <v>0.3926292236462956</v>
+        <v>0.3894629243652332</v>
       </c>
       <c r="E12">
-        <v>0.02532845726250521</v>
+        <v>0.02363105441465407</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006858291118621407</v>
       </c>
       <c r="H12">
-        <v>17.01574120722501</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.95657853049096</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.420686934539745</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.543536901878014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.4179707239807158</v>
+      </c>
+      <c r="M12">
+        <v>1.527307487364752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.352207678336754</v>
+        <v>5.265705772602246</v>
       </c>
       <c r="C13">
-        <v>3.889458147248888</v>
+        <v>3.841813182026613</v>
       </c>
       <c r="D13">
-        <v>0.3897911068697937</v>
+        <v>0.3866572096455627</v>
       </c>
       <c r="E13">
-        <v>0.02519122584183542</v>
+        <v>0.02349774399219307</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006870171059745189</v>
       </c>
       <c r="H13">
-        <v>16.90344327297566</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.84543996205389</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4178095910577184</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.532066061729026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.4151227476479917</v>
+      </c>
+      <c r="M13">
+        <v>1.516009215474554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.213788062442177</v>
+        <v>5.129969160018788</v>
       </c>
       <c r="C14">
-        <v>3.797250192960973</v>
+        <v>3.751146140556671</v>
       </c>
       <c r="D14">
-        <v>0.3806277565067404</v>
+        <v>0.3775971280626607</v>
       </c>
       <c r="E14">
-        <v>0.02474940763634415</v>
+        <v>0.02306844421241472</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006908705481785127</v>
       </c>
       <c r="H14">
-        <v>16.54052281003175</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.48621604045604</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4085113698985552</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.495063611266801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.4059182412415225</v>
+      </c>
+      <c r="M14">
+        <v>1.479558878826538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.130289733220025</v>
+        <v>5.048078744216241</v>
       </c>
       <c r="C15">
-        <v>3.741473300165126</v>
+        <v>3.696293285410491</v>
       </c>
       <c r="D15">
-        <v>0.3750830553176741</v>
+        <v>0.3721139393812507</v>
       </c>
       <c r="E15">
-        <v>0.02448298403808558</v>
+        <v>0.02280949291877121</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006932157214750803</v>
       </c>
       <c r="H15">
-        <v>16.32066372444348</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.26855989803369</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4028790109086273</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.472698302017434</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.4003417914058929</v>
+      </c>
+      <c r="M15">
+        <v>1.457524023795614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.669469520928089</v>
+        <v>4.596006997762913</v>
       </c>
       <c r="C16">
-        <v>3.431497897292104</v>
+        <v>3.391352351183173</v>
       </c>
       <c r="D16">
-        <v>0.3442455890097023</v>
+        <v>0.3416059668068243</v>
       </c>
       <c r="E16">
-        <v>0.0230133987291028</v>
+        <v>0.02138012683306112</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007064547036254347</v>
       </c>
       <c r="H16">
-        <v>15.09433900294226</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.05404842648784</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3714725308574387</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.348656145979604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.3692359643491017</v>
+      </c>
+      <c r="M16">
+        <v>1.335273901097523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.400575644411845</v>
+        <v>4.332135799294406</v>
       </c>
       <c r="C17">
-        <v>3.248888652251992</v>
+        <v>3.211638067859781</v>
       </c>
       <c r="D17">
-        <v>0.3260613939810355</v>
+        <v>0.3236067438771784</v>
       </c>
       <c r="E17">
-        <v>0.02215603254802456</v>
+        <v>0.02054547515424776</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007144286428833441</v>
       </c>
       <c r="H17">
-        <v>14.36835912903842</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.33470934868146</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3528896828563006</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.275790833349845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.3508228224811347</v>
+      </c>
+      <c r="M17">
+        <v>1.263432580065427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.250303880395393</v>
+        <v>4.184650185025077</v>
       </c>
       <c r="C18">
-        <v>3.14625905871435</v>
+        <v>3.110615515143934</v>
       </c>
       <c r="D18">
-        <v>0.3158361501603508</v>
+        <v>0.3134827024247784</v>
       </c>
       <c r="E18">
-        <v>0.0216767726885605</v>
+        <v>0.02007868118687028</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007189715609197123</v>
       </c>
       <c r="H18">
-        <v>13.95919362601393</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.92917968232902</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3424202848936488</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.234911013085338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.3404465767254052</v>
+      </c>
+      <c r="M18">
+        <v>1.223119138798324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.200120962222854</v>
+        <v>4.135394860599661</v>
       </c>
       <c r="C19">
-        <v>3.111891817819242</v>
+        <v>3.0767834654593</v>
       </c>
       <c r="D19">
-        <v>0.3124112130251717</v>
+        <v>0.310091228911503</v>
       </c>
       <c r="E19">
-        <v>0.0215166905803601</v>
+        <v>0.01992272667220529</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007205031563172109</v>
       </c>
       <c r="H19">
-        <v>13.82199212216187</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.79318077393998</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3389104032368451</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.22123361332396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.3369675456981511</v>
+      </c>
+      <c r="M19">
+        <v>1.209630033197058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.428731577658994</v>
+        <v>4.359768166477636</v>
       </c>
       <c r="C20">
-        <v>3.268071419787532</v>
+        <v>3.23051893073432</v>
       </c>
       <c r="D20">
-        <v>0.3279721964056819</v>
+        <v>0.3254984148845921</v>
       </c>
       <c r="E20">
-        <v>0.02224581653942259</v>
+        <v>0.0206329055370098</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007135845261799019</v>
       </c>
       <c r="H20">
-        <v>14.44474531847885</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.41040840881803</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3548445281178587</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.283437603628414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.3527600826371327</v>
+      </c>
+      <c r="M20">
+        <v>1.270972784321273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.254171555692324</v>
+        <v>5.169572198099274</v>
       </c>
       <c r="C21">
-        <v>3.824184471934302</v>
+        <v>3.777632060067447</v>
       </c>
       <c r="D21">
-        <v>0.3833047821074729</v>
+        <v>0.3802441941559493</v>
       </c>
       <c r="E21">
-        <v>0.02487828560809646</v>
+        <v>0.02319368703609825</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006897419439166453</v>
       </c>
       <c r="H21">
-        <v>16.64660298223464</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.59122356558152</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4112290898543947</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.505868439799855</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.4086087546398218</v>
+      </c>
+      <c r="M21">
+        <v>1.49020319429502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.849368944777837</v>
+        <v>5.753027268152493</v>
       </c>
       <c r="C22">
-        <v>4.218068694236649</v>
+        <v>4.164783553022005</v>
       </c>
       <c r="D22">
-        <v>0.4224167504421104</v>
+        <v>0.4188977513615839</v>
       </c>
       <c r="E22">
-        <v>0.0267802799128436</v>
+        <v>0.02504041013195035</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006735105723416677</v>
       </c>
       <c r="H22">
-        <v>18.19129844149842</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.1195311797357</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4508121547383652</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.664218923985359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.4477773731632553</v>
+      </c>
+      <c r="M22">
+        <v>1.646130100979732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.525599943497411</v>
+        <v>5.435704204940237</v>
       </c>
       <c r="C23">
-        <v>4.004518089923067</v>
+        <v>3.954925758442982</v>
       </c>
       <c r="D23">
-        <v>0.4012202195548724</v>
+        <v>0.3979546017081077</v>
       </c>
       <c r="E23">
-        <v>0.02574499955453824</v>
+        <v>0.02403559856939985</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006822485664629776</v>
       </c>
       <c r="H23">
-        <v>17.35535779460764</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>17.29264288133425</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4293892624826725</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.57828861601493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.4265831439592631</v>
+      </c>
+      <c r="M23">
+        <v>1.561532151868462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.415988987684727</v>
+        <v>4.347262591216463</v>
       </c>
       <c r="C24">
-        <v>3.25939164265742</v>
+        <v>3.221975820182138</v>
       </c>
       <c r="D24">
-        <v>0.3271076174200402</v>
+        <v>0.3246425009641314</v>
       </c>
       <c r="E24">
-        <v>0.0222051832268253</v>
+        <v>0.02059333810978536</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007139662780352675</v>
       </c>
       <c r="H24">
-        <v>14.41018584863696</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.37616014810143</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3539600831892287</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.279977385099912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.3518836014614308</v>
+      </c>
+      <c r="M24">
+        <v>1.267560812651695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.383305739766683</v>
+        <v>3.333556269815858</v>
       </c>
       <c r="C25">
-        <v>2.545508218017346</v>
+        <v>2.519047309102803</v>
       </c>
       <c r="D25">
-        <v>0.2559106147517696</v>
+        <v>0.2541138658188942</v>
       </c>
       <c r="E25">
-        <v>0.01890605260021339</v>
+        <v>0.01737692400472479</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007465760908101306</v>
       </c>
       <c r="H25">
-        <v>11.5473245576718</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.53733724205503</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2807877245438988</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9967499232295935</v>
+        <v>0.2793306944139786</v>
+      </c>
+      <c r="M25">
+        <v>0.9881661032706432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.67105610345493</v>
+        <v>4.117511149352481</v>
       </c>
       <c r="C2">
-        <v>2.047297148284201</v>
+        <v>1.153285035687077</v>
       </c>
       <c r="D2">
-        <v>0.2066734980123357</v>
+        <v>0.209297959573945</v>
       </c>
       <c r="E2">
-        <v>0.01525644300855244</v>
+        <v>1.459375845955535</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000770103139934861</v>
+        <v>0.0007607903382322867</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.608054851709113</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.196322235839276</v>
       </c>
       <c r="L2">
-        <v>0.2301882853906463</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8023661837320688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.264583686105937</v>
+      </c>
+      <c r="O2">
+        <v>2.389334126837255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.256566776510169</v>
+        <v>3.52915435353674</v>
       </c>
       <c r="C3">
-        <v>1.746303912753774</v>
+        <v>0.9852132992203906</v>
       </c>
       <c r="D3">
-        <v>0.1763639540372708</v>
+        <v>0.1795673322570792</v>
       </c>
       <c r="E3">
-        <v>0.01391641210693884</v>
+        <v>1.239007107738118</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007860463358395535</v>
+        <v>0.0007723437452197811</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.366019561324919</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.02413347964729</v>
       </c>
       <c r="L3">
-        <v>0.1986641721421591</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6846985684040376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.247518160853303</v>
+      </c>
+      <c r="O3">
+        <v>2.106531877375986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.014737305783626</v>
+        <v>3.17753153550774</v>
       </c>
       <c r="C4">
-        <v>1.568303104707752</v>
+        <v>0.8848569372103157</v>
       </c>
       <c r="D4">
-        <v>0.1584255117703037</v>
+        <v>0.1617966201050649</v>
       </c>
       <c r="E4">
-        <v>0.01312777349775107</v>
+        <v>1.108609437478393</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007959090605269395</v>
+        <v>0.0007795409478228708</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.627008822811035</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9212489777475668</v>
       </c>
       <c r="L4">
-        <v>0.1799653784374939</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6154944441584078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.23993831592135</v>
+      </c>
+      <c r="O4">
+        <v>1.940251898275775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.918843368016269</v>
+        <v>3.036274226421256</v>
       </c>
       <c r="C5">
-        <v>1.497180930245349</v>
+        <v>0.8445534271506006</v>
       </c>
       <c r="D5">
-        <v>0.1512552139186738</v>
+        <v>0.1546574926659474</v>
       </c>
       <c r="E5">
-        <v>0.01281332385495748</v>
+        <v>1.056487868709368</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007999558538476082</v>
+        <v>0.0007825045765352812</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.330715250249341</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8799200003210643</v>
       </c>
       <c r="L5">
-        <v>0.1724833334052782</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5879325200529593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.23750100692591</v>
+      </c>
+      <c r="O5">
+        <v>1.874085307553884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.903066568702855</v>
+        <v>3.01293081210963</v>
       </c>
       <c r="C6">
-        <v>1.48544875031223</v>
+        <v>0.8378935896602115</v>
       </c>
       <c r="D6">
-        <v>0.1500722650140176</v>
+        <v>0.1534777266561917</v>
       </c>
       <c r="E6">
-        <v>0.01276148489372808</v>
+        <v>1.047888738338244</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008006297324493876</v>
+        <v>0.0007829986664919699</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.28178098524856</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8730902956828572</v>
       </c>
       <c r="L6">
-        <v>0.1712485489014277</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5833911778197134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.237133571114981</v>
+      </c>
+      <c r="O6">
+        <v>1.863187755981443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.013433943613563</v>
+        <v>3.175618742401582</v>
       </c>
       <c r="C7">
-        <v>1.567338558412075</v>
+        <v>0.8843111401148462</v>
       </c>
       <c r="D7">
-        <v>0.1583282799867192</v>
+        <v>0.1616999475607059</v>
       </c>
       <c r="E7">
-        <v>0.01312350666037698</v>
+        <v>1.107902657030067</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007959635137038288</v>
+        <v>0.000779580786289696</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.622994534012946</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9206893258535871</v>
       </c>
       <c r="L7">
-        <v>0.1798639479521604</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6151202982777306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.2399029024307</v>
+      </c>
+      <c r="O7">
+        <v>1.939353415245307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.525161345800996</v>
+        <v>3.91239553782151</v>
       </c>
       <c r="C8">
-        <v>1.941906030138341</v>
+        <v>1.094665736013383</v>
       </c>
       <c r="D8">
-        <v>0.1960642664229511</v>
+        <v>0.1989340819851009</v>
       </c>
       <c r="E8">
-        <v>0.01478621782484346</v>
+        <v>1.382231788686624</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007755910808173975</v>
+        <v>0.0007647555411965496</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.174199459887632</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.136286695143369</v>
       </c>
       <c r="L8">
-        <v>0.2191645056483082</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7610798768227127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.258048083199668</v>
+      </c>
+      <c r="O8">
+        <v>2.290130052840752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.659106426066899</v>
+        <v>5.454470461431526</v>
       </c>
       <c r="C9">
-        <v>2.747123891003298</v>
+        <v>1.536252838960138</v>
       </c>
       <c r="D9">
-        <v>0.2770198721516266</v>
+        <v>0.2768061971845981</v>
       </c>
       <c r="E9">
-        <v>0.01841246523665863</v>
+        <v>1.971103714324116</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007357147493338298</v>
+        <v>0.0007362511767809879</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.4630107536415</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.587865770437716</v>
       </c>
       <c r="L9">
-        <v>0.3029635942263482</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.078514370957166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.320756730558458</v>
+      </c>
+      <c r="O9">
+        <v>3.05017397397981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.626742543175396</v>
+        <v>6.68239938268016</v>
       </c>
       <c r="C10">
-        <v>3.41220129808579</v>
+        <v>1.889704759718825</v>
       </c>
       <c r="D10">
-        <v>0.3436931606259321</v>
+        <v>0.3387021852834238</v>
       </c>
       <c r="E10">
-        <v>0.02147731802419006</v>
+        <v>2.45595789519956</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007055381881088234</v>
+        <v>0.000715222727492966</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.13732824468838</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.947928638073563</v>
       </c>
       <c r="L10">
-        <v>0.3713682582140549</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.343618455898365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.390432209241098</v>
+      </c>
+      <c r="O10">
+        <v>3.676149494112678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.114236703349832</v>
+        <v>7.272189175341509</v>
       </c>
       <c r="C11">
-        <v>3.740617022731215</v>
+        <v>2.060174610720196</v>
       </c>
       <c r="D11">
-        <v>0.3765447297340359</v>
+        <v>0.3683803662818974</v>
       </c>
       <c r="E11">
-        <v>0.02301869324476691</v>
+        <v>2.694436944763964</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006913198881526306</v>
+        <v>0.0007055091361938489</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.44445568930814</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.121057411166106</v>
       </c>
       <c r="L11">
-        <v>0.4048482839071141</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.475328222460689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.429350996183985</v>
+      </c>
+      <c r="O11">
+        <v>3.982582857756654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.307848069506861</v>
+        <v>7.501176298193229</v>
       </c>
       <c r="C12">
-        <v>3.869898909311587</v>
+        <v>2.126494808434643</v>
       </c>
       <c r="D12">
-        <v>0.3894629243652332</v>
+        <v>0.3798922905327231</v>
       </c>
       <c r="E12">
-        <v>0.02363105441465407</v>
+        <v>2.788074900211882</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006858291118621407</v>
+        <v>0.0007017953915297602</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.95657853049096</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.18831085822606</v>
       </c>
       <c r="L12">
-        <v>0.4179707239807158</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.527307487364752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.445359132669807</v>
+      </c>
+      <c r="O12">
+        <v>4.102509944319849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.265705772602246</v>
+        <v>7.451586906008174</v>
       </c>
       <c r="C13">
-        <v>3.841813182026613</v>
+        <v>2.112125912140527</v>
       </c>
       <c r="D13">
-        <v>0.3866572096455627</v>
+        <v>0.3773998104021956</v>
       </c>
       <c r="E13">
-        <v>0.02349774399219307</v>
+        <v>2.767745630486246</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006870171059745189</v>
+        <v>0.0007025970556438639</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.84543996205389</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.17374471161402</v>
       </c>
       <c r="L13">
-        <v>0.4151227476479917</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.516009215474554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.44185063583879</v>
+      </c>
+      <c r="O13">
+        <v>4.076494118734956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.129969160018788</v>
+        <v>7.290907184232481</v>
       </c>
       <c r="C14">
-        <v>3.751146140556671</v>
+        <v>2.065592892199902</v>
       </c>
       <c r="D14">
-        <v>0.3775971280626607</v>
+        <v>0.3693216167794162</v>
       </c>
       <c r="E14">
-        <v>0.02306844421241472</v>
+        <v>2.702068694704366</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006908705481785127</v>
+        <v>0.0007052044089919107</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.48621604045604</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.126554112284282</v>
       </c>
       <c r="L14">
-        <v>0.4059182412415225</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.479558878826538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1.430640987674622</v>
+      </c>
+      <c r="O14">
+        <v>3.992366278782356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.048078744216241</v>
+        <v>7.193261136559329</v>
       </c>
       <c r="C15">
-        <v>3.696293285410491</v>
+        <v>2.037333015376248</v>
       </c>
       <c r="D15">
-        <v>0.3721139393812507</v>
+        <v>0.3644109546814036</v>
       </c>
       <c r="E15">
-        <v>0.02280949291877121</v>
+        <v>2.662299738448439</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006932157214750803</v>
+        <v>0.0007067963902781351</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.26855989803369</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.097881019751568</v>
       </c>
       <c r="L15">
-        <v>0.4003417914058929</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.457524023795614</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1.423948113555952</v>
+      </c>
+      <c r="O15">
+        <v>3.941368117664922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.596006997762913</v>
+        <v>6.64457565213371</v>
       </c>
       <c r="C16">
-        <v>3.391352351183173</v>
+        <v>1.878788836333172</v>
       </c>
       <c r="D16">
-        <v>0.3416059668068243</v>
+        <v>0.3367976374138095</v>
       </c>
       <c r="E16">
-        <v>0.02138012683306112</v>
+        <v>2.44079288254774</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007064547036254347</v>
+        <v>0.0007158534318523133</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.05404842648784</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.9368301064777</v>
       </c>
       <c r="L16">
-        <v>0.3692359643491017</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.335273901097523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.388052618463277</v>
+      </c>
+      <c r="O16">
+        <v>3.656620991905783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.332135799294406</v>
+        <v>6.316703596424304</v>
       </c>
       <c r="C17">
-        <v>3.211638067859781</v>
+        <v>1.784244535859727</v>
       </c>
       <c r="D17">
-        <v>0.3236067438771784</v>
+        <v>0.3202823617862691</v>
       </c>
       <c r="E17">
-        <v>0.02054547515424776</v>
+        <v>2.309966416569026</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007144286428833441</v>
+        <v>0.0007213628178895238</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.33470934868146</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.840644425621775</v>
       </c>
       <c r="L17">
-        <v>0.3508228224811347</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.263432580065427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.368029240150122</v>
+      </c>
+      <c r="O17">
+        <v>3.487978974269993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.184650185025077</v>
+        <v>6.130972955675645</v>
       </c>
       <c r="C18">
-        <v>3.110615515143934</v>
+        <v>1.730749338731073</v>
       </c>
       <c r="D18">
-        <v>0.3134827024247784</v>
+        <v>0.3109224830589454</v>
       </c>
       <c r="E18">
-        <v>0.02007868118687028</v>
+        <v>2.236349161449581</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007189715609197123</v>
+        <v>0.0007245188028588098</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.92917968232902</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.786174145964409</v>
       </c>
       <c r="L18">
-        <v>0.3404465767254052</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.223119138798324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.357175421482665</v>
+      </c>
+      <c r="O18">
+        <v>3.392964826706759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.135394860599661</v>
+        <v>6.068546918242987</v>
       </c>
       <c r="C19">
-        <v>3.0767834654593</v>
+        <v>1.712778747767459</v>
       </c>
       <c r="D19">
-        <v>0.310091228911503</v>
+        <v>0.3077758496262675</v>
       </c>
       <c r="E19">
-        <v>0.01992272667220529</v>
+        <v>2.211684088316659</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007205031563172109</v>
+        <v>0.0007255855303484626</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.79318077393998</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.767868675415855</v>
       </c>
       <c r="L19">
-        <v>0.3369675456981511</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.209630033197058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.353608246636554</v>
+      </c>
+      <c r="O19">
+        <v>3.361115036832985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.359768166477636</v>
+        <v>6.351303406784837</v>
       </c>
       <c r="C20">
-        <v>3.23051893073432</v>
+        <v>1.794215020197271</v>
       </c>
       <c r="D20">
-        <v>0.3254984148845921</v>
+        <v>0.3220256725150961</v>
       </c>
       <c r="E20">
-        <v>0.0206329055370098</v>
+        <v>2.323719566063801</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007135845261799019</v>
+        <v>0.0007207777573734269</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.41040840881803</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.850792991602731</v>
       </c>
       <c r="L20">
-        <v>0.3527600826371327</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.270972784321273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1.370090639926303</v>
+      </c>
+      <c r="O20">
+        <v>3.505720869558274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.169572198099274</v>
+        <v>7.337938703232453</v>
       </c>
       <c r="C21">
-        <v>3.777632060067447</v>
+        <v>2.079209321881649</v>
       </c>
       <c r="D21">
-        <v>0.3802441941559493</v>
+        <v>0.3716864527495005</v>
       </c>
       <c r="E21">
-        <v>0.02319368703609825</v>
+        <v>2.721262042435342</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006897419439166453</v>
+        <v>0.0007044396593732161</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.59122356558152</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.140365916940908</v>
       </c>
       <c r="L21">
-        <v>0.4086087546398218</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.49020319429502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1.433896901959713</v>
+      </c>
+      <c r="O21">
+        <v>4.016964003395543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.753027268152493</v>
+        <v>8.016455421162277</v>
       </c>
       <c r="C22">
-        <v>4.164783553022005</v>
+        <v>2.276023684897723</v>
       </c>
       <c r="D22">
-        <v>0.4188977513615839</v>
+        <v>0.4057727552232819</v>
       </c>
       <c r="E22">
-        <v>0.02504041013195035</v>
+        <v>3.001029771004028</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006735105723416677</v>
+        <v>0.0006935456868671969</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.1195311797357</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.339725728046076</v>
       </c>
       <c r="L22">
-        <v>0.4477773731632553</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.646130100979732</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1.483159327776605</v>
+      </c>
+      <c r="O22">
+        <v>4.374269868023617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.435704204940237</v>
+        <v>7.65076658403251</v>
       </c>
       <c r="C23">
-        <v>3.954925758442982</v>
+        <v>2.169862196024894</v>
       </c>
       <c r="D23">
-        <v>0.3979546017081077</v>
+        <v>0.3874091924045615</v>
       </c>
       <c r="E23">
-        <v>0.02403559856939985</v>
+        <v>2.849573027292706</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006822485664629776</v>
+        <v>0.0006993855363122137</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.29264288133425</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.232256759806674</v>
       </c>
       <c r="L23">
-        <v>0.4265831439592631</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.561532151868462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1.456081469270799</v>
+      </c>
+      <c r="O23">
+        <v>4.181136371133476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.347262591216463</v>
+        <v>6.335652296087972</v>
       </c>
       <c r="C24">
-        <v>3.221975820182138</v>
+        <v>1.789704713675746</v>
       </c>
       <c r="D24">
-        <v>0.3246425009641314</v>
+        <v>0.3212371052587741</v>
       </c>
       <c r="E24">
-        <v>0.02059333810978536</v>
+        <v>2.317496847755677</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007139662780352675</v>
+        <v>0.0007210422978194858</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.37616014810143</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.846202270618463</v>
       </c>
       <c r="L24">
-        <v>0.3518836014614308</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.267560812651695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.36915664855205</v>
+      </c>
+      <c r="O24">
+        <v>3.49769377012754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.333556269815858</v>
+        <v>5.023623073415024</v>
       </c>
       <c r="C25">
-        <v>2.519047309102803</v>
+        <v>1.412650404775093</v>
       </c>
       <c r="D25">
-        <v>0.2541138658188942</v>
+        <v>0.2550614448045252</v>
       </c>
       <c r="E25">
-        <v>0.01737692400472479</v>
+        <v>1.804449194059714</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007465760908101306</v>
+        <v>0.0007439410739591094</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.53733724205503</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.461638491596631</v>
       </c>
       <c r="L25">
-        <v>0.2793306944139786</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9881661032706432</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.300242945936375</v>
+      </c>
+      <c r="O25">
+        <v>2.834681404508302</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.117511149352481</v>
+        <v>1.074734418277558</v>
       </c>
       <c r="C2">
-        <v>1.153285035687077</v>
+        <v>0.218035491164386</v>
       </c>
       <c r="D2">
-        <v>0.209297959573945</v>
+        <v>0.2006992801254199</v>
       </c>
       <c r="E2">
-        <v>1.459375845955535</v>
+        <v>1.392192472575317</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007607903382322867</v>
+        <v>0.3015056471149649</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2516891736364286</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2032779264271518</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.196322235839276</v>
+        <v>1.235206736234431</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.264583686105937</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.389334126837255</v>
+        <v>1.115809988802027</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.52915435353674</v>
+        <v>0.9380009444453776</v>
       </c>
       <c r="C3">
-        <v>0.9852132992203906</v>
+        <v>0.1930851344653348</v>
       </c>
       <c r="D3">
-        <v>0.1795673322570792</v>
+        <v>0.1740997719578274</v>
       </c>
       <c r="E3">
-        <v>1.239007107738118</v>
+        <v>1.196763505218755</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007723437452197811</v>
+        <v>0.2857534380020397</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2510132524645527</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2071020559419914</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.02413347964729</v>
+        <v>1.080833266419205</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.247518160853303</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.106531877375986</v>
+        <v>1.08059306314226</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.17753153550774</v>
+        <v>0.8541052398918794</v>
       </c>
       <c r="C4">
-        <v>0.8848569372103157</v>
+        <v>0.1777819827829177</v>
       </c>
       <c r="D4">
-        <v>0.1617966201050649</v>
+        <v>0.1579142011976415</v>
       </c>
       <c r="E4">
-        <v>1.108609437478393</v>
+        <v>1.078778892631036</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007795409478228708</v>
+        <v>0.2770594472506858</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2511878116687427</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.21011611427868</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9212489777475668</v>
+        <v>0.9861123075503144</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.23993831592135</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.940251898275775</v>
+        <v>1.062267656000728</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.036274226421256</v>
+        <v>0.8199194302207218</v>
       </c>
       <c r="C5">
-        <v>0.8445534271506006</v>
+        <v>0.1715469100757616</v>
       </c>
       <c r="D5">
-        <v>0.1546574926659474</v>
+        <v>0.1513507727551797</v>
       </c>
       <c r="E5">
-        <v>1.056487868709368</v>
+        <v>1.03112881641151</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007825045765352812</v>
+        <v>0.273746267622947</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2514001397923806</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2115036324166759</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8799200003210643</v>
+        <v>0.9475140216320597</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.23750100692591</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.874085307553884</v>
+        <v>1.055580007117996</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.01293081210963</v>
+        <v>0.8142426964263905</v>
       </c>
       <c r="C6">
-        <v>0.8378935896602115</v>
+        <v>0.1705115615666415</v>
       </c>
       <c r="D6">
-        <v>0.1534777266561917</v>
+        <v>0.1502627443898632</v>
       </c>
       <c r="E6">
-        <v>1.047888738338244</v>
+        <v>1.023240402516677</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007829986664919699</v>
+        <v>0.2732095333211575</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2514437258450215</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2117434165143486</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8730902956828572</v>
+        <v>0.9411044623352325</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.237133571114981</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.863187755981443</v>
+        <v>1.054515260667344</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.175618742401582</v>
+        <v>0.8536442044245689</v>
       </c>
       <c r="C7">
-        <v>0.8843111401148462</v>
+        <v>0.1776978938902687</v>
       </c>
       <c r="D7">
-        <v>0.1616999475607059</v>
+        <v>0.1578255594654081</v>
       </c>
       <c r="E7">
-        <v>1.107902657030067</v>
+        <v>1.078134623367887</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000779580786289696</v>
+        <v>0.2770138552774668</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2511901125406553</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2101341924936193</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9206893258535871</v>
+        <v>0.9855917715599674</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.2399029024307</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.939353415245307</v>
+        <v>1.062174368330204</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.91239553782151</v>
+        <v>1.027568585261577</v>
       </c>
       <c r="C8">
-        <v>1.094665736013383</v>
+        <v>0.2094272726583029</v>
       </c>
       <c r="D8">
-        <v>0.1989340819851009</v>
+        <v>0.1914945122715039</v>
       </c>
       <c r="E8">
-        <v>1.382231788686624</v>
+        <v>1.324343975700089</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007647555411965496</v>
+        <v>0.2958612504834761</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2513293679462336</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2044531634987727</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.136286695143369</v>
+        <v>1.181955834368807</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.258048083199668</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.290130052840752</v>
+        <v>1.102952178715356</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.454470461431526</v>
+        <v>1.369729678890792</v>
       </c>
       <c r="C9">
-        <v>1.536252838960138</v>
+        <v>0.271932083776278</v>
       </c>
       <c r="D9">
-        <v>0.2768061971845981</v>
+        <v>0.2589037710365432</v>
       </c>
       <c r="E9">
-        <v>1.971103714324116</v>
+        <v>1.826871115584453</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007362511767809879</v>
+        <v>0.3413645224744783</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2566214775750666</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1989921470981528</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.587865770437716</v>
+        <v>1.568294267612771</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.320756730558458</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3.05017397397981</v>
+        <v>1.211462605540078</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.68239938268016</v>
+        <v>1.622751476340028</v>
       </c>
       <c r="C10">
-        <v>1.889704759718825</v>
+        <v>0.3182645897717578</v>
       </c>
       <c r="D10">
-        <v>0.3387021852834238</v>
+        <v>0.3096059226663215</v>
       </c>
       <c r="E10">
-        <v>2.45595789519956</v>
+        <v>2.213940488437515</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000715222727492966</v>
+        <v>0.3811822073732003</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2640809992390842</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.199031881150443</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.947928638073563</v>
+        <v>1.854076365413192</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.390432209241098</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>3.676149494112678</v>
+        <v>1.312157907463416</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.272189175341509</v>
+        <v>1.738451467513102</v>
       </c>
       <c r="C11">
-        <v>2.060174610720196</v>
+        <v>0.339490892689696</v>
       </c>
       <c r="D11">
-        <v>0.3683803662818974</v>
+        <v>0.3330073260279391</v>
       </c>
       <c r="E11">
-        <v>2.694436944763964</v>
+        <v>2.395396910327676</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007055091361938489</v>
+        <v>0.4009709424476426</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2683750212681417</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2000731716880715</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.121057411166106</v>
+        <v>1.984795352602504</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.429350996183985</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3.982582857756654</v>
+        <v>1.363393339983645</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.501176298193229</v>
+        <v>1.782371649346061</v>
       </c>
       <c r="C12">
-        <v>2.126494808434643</v>
+        <v>0.3475556889111431</v>
       </c>
       <c r="D12">
-        <v>0.3798922905327231</v>
+        <v>0.3419244334303784</v>
       </c>
       <c r="E12">
-        <v>2.788074900211882</v>
+        <v>2.46502461698492</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007017953915297602</v>
+        <v>0.4087318330336416</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2701420776029835</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2006277965504637</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.18831085822606</v>
+        <v>2.034424147352524</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.445359132669807</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>4.102509944319849</v>
+        <v>1.383655777852283</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.451586906008174</v>
+        <v>1.772907533640904</v>
       </c>
       <c r="C13">
-        <v>2.112125912140527</v>
+        <v>0.3458175045856819</v>
       </c>
       <c r="D13">
-        <v>0.3773998104021956</v>
+        <v>0.3400013872519025</v>
       </c>
       <c r="E13">
-        <v>2.767745630486246</v>
+        <v>2.449985957551647</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007025970556438639</v>
+        <v>0.4070480502518024</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2697550448299211</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2005009958477011</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.17374471161402</v>
+        <v>2.023729557102257</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.44185063583879</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>4.076494118734956</v>
+        <v>1.379252264986746</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.290907184232481</v>
+        <v>1.742062533583322</v>
       </c>
       <c r="C14">
-        <v>2.065592892199902</v>
+        <v>0.3401538172701066</v>
       </c>
       <c r="D14">
-        <v>0.3693216167794162</v>
+        <v>0.3337397868060918</v>
       </c>
       <c r="E14">
-        <v>2.702068694704366</v>
+        <v>2.401106034161202</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007052044089919107</v>
+        <v>0.4016039180102098</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2685175025224709</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2001155084749442</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.126554112284282</v>
+        <v>1.988875616100813</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.430640987674622</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>3.992366278782356</v>
+        <v>1.365042608263366</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.193261136559329</v>
+        <v>1.72318368470448</v>
       </c>
       <c r="C15">
-        <v>2.037333015376248</v>
+        <v>0.3366883119125816</v>
       </c>
       <c r="D15">
-        <v>0.3644109546814036</v>
+        <v>0.3299118240248191</v>
       </c>
       <c r="E15">
-        <v>2.662299738448439</v>
+        <v>2.371289191780178</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007067963902781351</v>
+        <v>0.3983048687791495</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2677781940784598</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1999006745823522</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.097881019751568</v>
+        <v>1.967544085209596</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.423948113555952</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>3.941368117664922</v>
+        <v>1.356453373417168</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.64457565213371</v>
+        <v>1.615204012079175</v>
       </c>
       <c r="C16">
-        <v>1.878788836333172</v>
+        <v>0.3168808537426742</v>
       </c>
       <c r="D16">
-        <v>0.3367976374138095</v>
+        <v>0.3080839542915044</v>
       </c>
       <c r="E16">
-        <v>2.44079288254774</v>
+        <v>2.202201737215475</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007158534318523133</v>
+        <v>0.3799248833083482</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2638194567416434</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1989855198747001</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.9368301064777</v>
+        <v>1.845550088916383</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.388052618463277</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>3.656620991905783</v>
+        <v>1.308925467351912</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.316703596424304</v>
+        <v>1.549129725583356</v>
       </c>
       <c r="C17">
-        <v>1.784244535859727</v>
+        <v>0.3047715334273562</v>
       </c>
       <c r="D17">
-        <v>0.3202823617862691</v>
+        <v>0.2947843706868412</v>
       </c>
       <c r="E17">
-        <v>2.309966416569026</v>
+        <v>2.099944156362412</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007213628178895238</v>
+        <v>0.369096518046689</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.261629429542694</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1986951857605099</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.840644425621775</v>
+        <v>1.770911299471464</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.368029240150122</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.487978974269993</v>
+        <v>1.281213738082954</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.130972955675645</v>
+        <v>1.511180567762779</v>
       </c>
       <c r="C18">
-        <v>1.730749338731073</v>
+        <v>0.2978202826371614</v>
       </c>
       <c r="D18">
-        <v>0.3109224830589454</v>
+        <v>0.2871660410059036</v>
       </c>
       <c r="E18">
-        <v>2.236349161449581</v>
+        <v>2.041624987145312</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007245188028588098</v>
+        <v>0.3630243155871824</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2604538101974896</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1986236490009645</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.786174145964409</v>
+        <v>1.728046700963631</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.357175421482665</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3.392964826706759</v>
+        <v>1.26578044785964</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.068546918242987</v>
+        <v>1.498340478598948</v>
       </c>
       <c r="C19">
-        <v>1.712778747767459</v>
+        <v>0.2954689087519853</v>
       </c>
       <c r="D19">
-        <v>0.3077758496262675</v>
+        <v>0.2845917642916049</v>
       </c>
       <c r="E19">
-        <v>2.211684088316659</v>
+        <v>2.021960404200669</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007255855303484626</v>
+        <v>0.3609943976453138</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2600698639736123</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1986154397637385</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.767868675415855</v>
+        <v>1.713544024244328</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.353608246636554</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.361115036832985</v>
+        <v>1.260639544540965</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.351303406784837</v>
+        <v>1.556157605826996</v>
       </c>
       <c r="C20">
-        <v>1.794215020197271</v>
+        <v>0.3060591352158895</v>
       </c>
       <c r="D20">
-        <v>0.3220256725150961</v>
+        <v>0.2961968514690199</v>
       </c>
       <c r="E20">
-        <v>2.323719566063801</v>
+        <v>2.11077727843427</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007207777573734269</v>
+        <v>0.3702328884346144</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.261853785344158</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1987161212722199</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.850792991602731</v>
+        <v>1.778849753694118</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.370090639926303</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.505720869558274</v>
+        <v>1.284110797647202</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.337938703232453</v>
+        <v>1.751119374022352</v>
       </c>
       <c r="C21">
-        <v>2.079209321881649</v>
+        <v>0.3418166049830802</v>
       </c>
       <c r="D21">
-        <v>0.3716864527495005</v>
+        <v>0.335577404955103</v>
       </c>
       <c r="E21">
-        <v>2.721262042435342</v>
+        <v>2.415437234035977</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007044396593732161</v>
+        <v>0.4031955138707701</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2688770750330178</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2002242738135145</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.140365916940908</v>
+        <v>1.99910936438954</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.433896901959713</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>4.016964003395543</v>
+        <v>1.369192294888393</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.016455421162277</v>
+        <v>1.879173659563179</v>
       </c>
       <c r="C22">
-        <v>2.276023684897723</v>
+        <v>0.3653456384876392</v>
       </c>
       <c r="D22">
-        <v>0.4057727552232819</v>
+        <v>0.3616421082675458</v>
       </c>
       <c r="E22">
-        <v>3.001029771004028</v>
+        <v>2.619956695319786</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006935456868671969</v>
+        <v>0.4263107535530821</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2742951997220899</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.202151342508099</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.339725728046076</v>
+        <v>2.143823569196911</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.483159327776605</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4.374269868023617</v>
+        <v>1.42985742799894</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.65076658403251</v>
+        <v>1.810763073100219</v>
       </c>
       <c r="C23">
-        <v>2.169862196024894</v>
+        <v>0.3527712307587478</v>
       </c>
       <c r="D23">
-        <v>0.3874091924045615</v>
+        <v>0.3476984489491599</v>
       </c>
       <c r="E23">
-        <v>2.849573027292706</v>
+        <v>2.510254845152829</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006993855363122137</v>
+        <v>0.4138204748943224</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.271323601632389</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2010320232268086</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.232256759806674</v>
+        <v>2.066508076772806</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.456081469270799</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4.181136371133476</v>
+        <v>1.396987922135708</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.335652296087972</v>
+        <v>1.552980184897137</v>
       </c>
       <c r="C24">
-        <v>1.789704713675746</v>
+        <v>0.30547697795771</v>
       </c>
       <c r="D24">
-        <v>0.3212371052587741</v>
+        <v>0.2955581829130978</v>
       </c>
       <c r="E24">
-        <v>2.317496847755677</v>
+        <v>2.105878170191957</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007210422978194858</v>
+        <v>0.3697186602605882</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2617520949940086</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.198706360221081</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.846202270618463</v>
+        <v>1.775260636421848</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.36915664855205</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.49769377012754</v>
+        <v>1.282799490101723</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.023623073415024</v>
+        <v>1.276953681460157</v>
       </c>
       <c r="C25">
-        <v>1.412650404775093</v>
+        <v>0.2549693566531488</v>
       </c>
       <c r="D25">
-        <v>0.2550614448045252</v>
+        <v>0.2404866519758002</v>
       </c>
       <c r="E25">
-        <v>1.804449194059714</v>
+        <v>1.688247961624924</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007439410739591094</v>
+        <v>0.3280241332670641</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2546021581605373</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1998033683943845</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.461638491596631</v>
+        <v>1.463529338680331</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.300242945936375</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.834681404508302</v>
+        <v>1.178700388093802</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.074734418277558</v>
+        <v>0.3419937204270411</v>
       </c>
       <c r="C2">
-        <v>0.218035491164386</v>
+        <v>0.07295521617012923</v>
       </c>
       <c r="D2">
-        <v>0.2006992801254199</v>
+        <v>0.0790759291399894</v>
       </c>
       <c r="E2">
-        <v>1.392192472575317</v>
+        <v>0.4186173600666478</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3015056471149649</v>
+        <v>0.4099646853786965</v>
       </c>
       <c r="H2">
-        <v>0.2516891736364286</v>
+        <v>0.566722113727046</v>
       </c>
       <c r="I2">
-        <v>0.2032779264271518</v>
+        <v>0.431979201775178</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.235206736234431</v>
+        <v>0.3789283569079771</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.115809988802027</v>
+        <v>1.900787633321301</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9380009444453776</v>
+        <v>0.2994647181646997</v>
       </c>
       <c r="C3">
-        <v>0.1930851344653348</v>
+        <v>0.06502746772761725</v>
       </c>
       <c r="D3">
-        <v>0.1740997719578274</v>
+        <v>0.07165833778176989</v>
       </c>
       <c r="E3">
-        <v>1.196763505218755</v>
+        <v>0.365274963597173</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2857534380020397</v>
+        <v>0.4105030486526928</v>
       </c>
       <c r="H3">
-        <v>0.2510132524645527</v>
+        <v>0.5710512420052467</v>
       </c>
       <c r="I3">
-        <v>0.2071020559419914</v>
+        <v>0.437165556847571</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.080833266419205</v>
+        <v>0.3305766105088139</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.08059306314226</v>
+        <v>1.910712916604183</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8541052398918794</v>
+        <v>0.2732938709733048</v>
       </c>
       <c r="C4">
-        <v>0.1777819827829177</v>
+        <v>0.06013130166671488</v>
       </c>
       <c r="D4">
-        <v>0.1579142011976415</v>
+        <v>0.06713703597539222</v>
       </c>
       <c r="E4">
-        <v>1.078778892631036</v>
+        <v>0.3326033741979728</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2770594472506858</v>
+        <v>0.4111944143402155</v>
       </c>
       <c r="H4">
-        <v>0.2511878116687427</v>
+        <v>0.5740103714446647</v>
       </c>
       <c r="I4">
-        <v>0.21011611427868</v>
+        <v>0.4406458533377595</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9861123075503144</v>
+        <v>0.3007926697861762</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.062267656000728</v>
+        <v>1.918192594569561</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8199194302207218</v>
+        <v>0.2626150629347421</v>
       </c>
       <c r="C5">
-        <v>0.1715469100757616</v>
+        <v>0.05812897051117716</v>
       </c>
       <c r="D5">
-        <v>0.1513507727551797</v>
+        <v>0.06530291569288238</v>
       </c>
       <c r="E5">
-        <v>1.03112881641151</v>
+        <v>0.3193082460111043</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.273746267622947</v>
+        <v>0.4115666001412137</v>
       </c>
       <c r="H5">
-        <v>0.2514001397923806</v>
+        <v>0.5752918947514729</v>
       </c>
       <c r="I5">
-        <v>0.2115036324166759</v>
+        <v>0.4421383703937352</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9475140216320597</v>
+        <v>0.2886319761973368</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.055580007117996</v>
+        <v>1.921588336167574</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8142426964263905</v>
+        <v>0.2608410279604243</v>
       </c>
       <c r="C6">
-        <v>0.1705115615666415</v>
+        <v>0.05779605774353058</v>
       </c>
       <c r="D6">
-        <v>0.1502627443898632</v>
+        <v>0.06499886603796767</v>
       </c>
       <c r="E6">
-        <v>1.023240402516677</v>
+        <v>0.3171016918152105</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2732095333211575</v>
+        <v>0.411633856004471</v>
       </c>
       <c r="H6">
-        <v>0.2514437258450215</v>
+        <v>0.5755092588289443</v>
       </c>
       <c r="I6">
-        <v>0.2117434165143486</v>
+        <v>0.442390683606444</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9411044623352325</v>
+        <v>0.2866113005742079</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.054515260667344</v>
+        <v>1.922173177353173</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8536442044245689</v>
+        <v>0.2731499086519875</v>
       </c>
       <c r="C7">
-        <v>0.1776978938902687</v>
+        <v>0.06010432620882966</v>
       </c>
       <c r="D7">
-        <v>0.1578255594654081</v>
+        <v>0.06711226656943836</v>
       </c>
       <c r="E7">
-        <v>1.078134623367887</v>
+        <v>0.3324239972883305</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2770138552774668</v>
+        <v>0.4111990679172308</v>
       </c>
       <c r="H7">
-        <v>0.2511901125406553</v>
+        <v>0.5740273482536864</v>
       </c>
       <c r="I7">
-        <v>0.2101341924936193</v>
+        <v>0.4406656814063155</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9855917715599674</v>
+        <v>0.3006287607718434</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.062174368330204</v>
+        <v>1.918236983773483</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.027568585261577</v>
+        <v>0.3273420625438348</v>
       </c>
       <c r="C8">
-        <v>0.2094272726583029</v>
+        <v>0.07022767759735871</v>
       </c>
       <c r="D8">
-        <v>0.1914945122715039</v>
+        <v>0.07651147508599365</v>
       </c>
       <c r="E8">
-        <v>1.324343975700089</v>
+        <v>0.4002071868227546</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2958612504834761</v>
+        <v>0.4100752578014024</v>
       </c>
       <c r="H8">
-        <v>0.2513293679462336</v>
+        <v>0.568152293517393</v>
       </c>
       <c r="I8">
-        <v>0.2044531634987727</v>
+        <v>0.4337059764904616</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.181955834368807</v>
+        <v>0.3622768889098609</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.102952178715356</v>
+        <v>1.903921891058133</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.369729678890792</v>
+        <v>0.433133462145264</v>
       </c>
       <c r="C9">
-        <v>0.271932083776278</v>
+        <v>0.08985165565974285</v>
       </c>
       <c r="D9">
-        <v>0.2589037710365432</v>
+        <v>0.09520643689737085</v>
       </c>
       <c r="E9">
-        <v>1.826871115584453</v>
+        <v>0.5338462420115491</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3413645224744783</v>
+        <v>0.4107475344981282</v>
       </c>
       <c r="H9">
-        <v>0.2566214775750666</v>
+        <v>0.5590219255403497</v>
       </c>
       <c r="I9">
-        <v>0.1989921470981528</v>
+        <v>0.4224111945678963</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.568294267612771</v>
+        <v>0.4823888465412836</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.211462605540078</v>
+        <v>1.886876139744686</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.622751476340028</v>
+        <v>0.5105469197237085</v>
       </c>
       <c r="C10">
-        <v>0.3182645897717578</v>
+        <v>0.1041294763322753</v>
       </c>
       <c r="D10">
-        <v>0.3096059226663215</v>
+        <v>0.1091038841048402</v>
       </c>
       <c r="E10">
-        <v>2.213940488437515</v>
+        <v>0.6325801516627507</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3811822073732003</v>
+        <v>0.4130139381484526</v>
       </c>
       <c r="H10">
-        <v>0.2640809992390842</v>
+        <v>0.5537743890861861</v>
       </c>
       <c r="I10">
-        <v>0.199031881150443</v>
+        <v>0.415555380923557</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.854076365413192</v>
+        <v>0.570141579896756</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.312157907463416</v>
+        <v>1.881122114504421</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.738451467513102</v>
+        <v>0.5456930962515969</v>
       </c>
       <c r="C11">
-        <v>0.339490892689696</v>
+        <v>0.1105943320977758</v>
       </c>
       <c r="D11">
-        <v>0.3330073260279391</v>
+        <v>0.1154619028305461</v>
       </c>
       <c r="E11">
-        <v>2.395396910327676</v>
+        <v>0.6776409264464149</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4009709424476426</v>
+        <v>0.4144340397891995</v>
       </c>
       <c r="H11">
-        <v>0.2683750212681417</v>
+        <v>0.5517050126349829</v>
       </c>
       <c r="I11">
-        <v>0.2000731716880715</v>
+        <v>0.4127514227220495</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.984795352602504</v>
+        <v>0.6099521553671252</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.363393339983645</v>
+        <v>1.879984846479402</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.782371649346061</v>
+        <v>0.5589915640219658</v>
       </c>
       <c r="C12">
-        <v>0.3475556889111431</v>
+        <v>0.1130380222911924</v>
       </c>
       <c r="D12">
-        <v>0.3419244334303784</v>
+        <v>0.1178747007182892</v>
       </c>
       <c r="E12">
-        <v>2.46502461698492</v>
+        <v>0.6947271311692589</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4087318330336416</v>
+        <v>0.4150280705964633</v>
       </c>
       <c r="H12">
-        <v>0.2701420776029835</v>
+        <v>0.5509671449164983</v>
       </c>
       <c r="I12">
-        <v>0.2006277965504637</v>
+        <v>0.4117350464549325</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.034424147352524</v>
+        <v>0.625011307833546</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.383655777852283</v>
+        <v>1.879767866987891</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.772907533640904</v>
+        <v>0.5561279834765855</v>
       </c>
       <c r="C13">
-        <v>0.3458175045856819</v>
+        <v>0.1125119271140989</v>
       </c>
       <c r="D13">
-        <v>0.3400013872519025</v>
+        <v>0.1173548326529783</v>
       </c>
       <c r="E13">
-        <v>2.449985957551647</v>
+        <v>0.6910462768777563</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4070480502518024</v>
+        <v>0.4148976278063685</v>
       </c>
       <c r="H13">
-        <v>0.2697550448299211</v>
+        <v>0.5511240216500681</v>
       </c>
       <c r="I13">
-        <v>0.2005009958477011</v>
+        <v>0.411951918632429</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.023729557102257</v>
+        <v>0.6217687826131453</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.379252264986746</v>
+        <v>1.879805080909335</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.742062533583322</v>
+        <v>0.5467873857009522</v>
       </c>
       <c r="C14">
-        <v>0.3401538172701066</v>
+        <v>0.1107954647394251</v>
       </c>
       <c r="D14">
-        <v>0.3337397868060918</v>
+        <v>0.1156603019985027</v>
       </c>
       <c r="E14">
-        <v>2.401106034161202</v>
+        <v>0.679046155061684</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4016039180102098</v>
+        <v>0.4144817815305828</v>
       </c>
       <c r="H14">
-        <v>0.2685175025224709</v>
+        <v>0.5516433903215301</v>
       </c>
       <c r="I14">
-        <v>0.2001155084749442</v>
+        <v>0.4126668936187095</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.988875616100813</v>
+        <v>0.6111914101640252</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.365042608263366</v>
+        <v>1.879962708302145</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.72318368470448</v>
+        <v>0.5410645976724311</v>
       </c>
       <c r="C15">
-        <v>0.3366883119125816</v>
+        <v>0.1097435056013865</v>
       </c>
       <c r="D15">
-        <v>0.3299118240248191</v>
+        <v>0.1146230235927277</v>
       </c>
       <c r="E15">
-        <v>2.371289191780178</v>
+        <v>0.6716987348148677</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3983048687791495</v>
+        <v>0.4142344009781453</v>
       </c>
       <c r="H15">
-        <v>0.2677781940784598</v>
+        <v>0.5519674799778898</v>
       </c>
       <c r="I15">
-        <v>0.1999006745823522</v>
+        <v>0.4131107563433538</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.967544085209596</v>
+        <v>0.6047103293468012</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.356453373417168</v>
+        <v>1.880087111294557</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.615204012079175</v>
+        <v>0.5082485810177673</v>
       </c>
       <c r="C16">
-        <v>0.3168808537426742</v>
+        <v>0.10370636932754</v>
       </c>
       <c r="D16">
-        <v>0.3080839542915044</v>
+        <v>0.1086890951216049</v>
       </c>
       <c r="E16">
-        <v>2.202201737215475</v>
+        <v>0.6296384063867464</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3799248833083482</v>
+        <v>0.4129289879773808</v>
       </c>
       <c r="H16">
-        <v>0.2638194567416434</v>
+        <v>0.5539160274922779</v>
       </c>
       <c r="I16">
-        <v>0.1989855198747001</v>
+        <v>0.4157449738133714</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.845550088916383</v>
+        <v>0.5675376258630536</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.308925467351912</v>
+        <v>1.881226294346334</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.549129725583356</v>
+        <v>0.4880987513508046</v>
       </c>
       <c r="C17">
-        <v>0.3047715334273562</v>
+        <v>0.09999499895883446</v>
       </c>
       <c r="D17">
-        <v>0.2947843706868412</v>
+        <v>0.1050580267680061</v>
       </c>
       <c r="E17">
-        <v>2.099944156362412</v>
+        <v>0.6038743717326582</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.369096518046689</v>
+        <v>0.4122280432832639</v>
       </c>
       <c r="H17">
-        <v>0.261629429542694</v>
+        <v>0.5551928306325067</v>
       </c>
       <c r="I17">
-        <v>0.1986951857605099</v>
+        <v>0.4174417160432391</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.770911299471464</v>
+        <v>0.5447051127510463</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.281213738082954</v>
+        <v>1.882304860174258</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.511180567762779</v>
+        <v>0.476502588530451</v>
       </c>
       <c r="C18">
-        <v>0.2978202826371614</v>
+        <v>0.09785747867576333</v>
       </c>
       <c r="D18">
-        <v>0.2871660410059036</v>
+        <v>0.1029729221839659</v>
       </c>
       <c r="E18">
-        <v>2.041624987145312</v>
+        <v>0.5890692449155779</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3630243155871824</v>
+        <v>0.411861483740708</v>
       </c>
       <c r="H18">
-        <v>0.2604538101974896</v>
+        <v>0.5559571184720369</v>
       </c>
       <c r="I18">
-        <v>0.1986236490009645</v>
+        <v>0.4184472570759823</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.728046700963631</v>
+        <v>0.5315622723816205</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.26578044785964</v>
+        <v>1.883064503384333</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.498340478598948</v>
+        <v>0.4725752272387354</v>
       </c>
       <c r="C19">
-        <v>0.2954689087519853</v>
+        <v>0.09713326566013336</v>
       </c>
       <c r="D19">
-        <v>0.2845917642916049</v>
+        <v>0.1022675244988847</v>
       </c>
       <c r="E19">
-        <v>2.021960404200669</v>
+        <v>0.5840587804662363</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3609943976453138</v>
+        <v>0.4117436503326672</v>
       </c>
       <c r="H19">
-        <v>0.2600698639736123</v>
+        <v>0.5562210272735513</v>
       </c>
       <c r="I19">
-        <v>0.1986154397637385</v>
+        <v>0.418792798470502</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.713544024244328</v>
+        <v>0.52711060296852</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.260639544540965</v>
+        <v>1.883345602203718</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.556157605826996</v>
+        <v>0.4902444137623263</v>
       </c>
       <c r="C20">
-        <v>0.3060591352158895</v>
+        <v>0.1003903749126778</v>
       </c>
       <c r="D20">
-        <v>0.2961968514690199</v>
+        <v>0.1054442095149426</v>
       </c>
       <c r="E20">
-        <v>2.11077727843427</v>
+        <v>0.6066155711565813</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3702328884346144</v>
+        <v>0.4122988692360394</v>
       </c>
       <c r="H20">
-        <v>0.261853785344158</v>
+        <v>0.5550538172705757</v>
       </c>
       <c r="I20">
-        <v>0.1987161212722199</v>
+        <v>0.4172580282690141</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.778849753694118</v>
+        <v>0.547136731234616</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.284110797647202</v>
+        <v>1.882175624038723</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.751119374022352</v>
+        <v>0.5495312390005154</v>
       </c>
       <c r="C21">
-        <v>0.3418166049830802</v>
+        <v>0.1112997515819529</v>
       </c>
       <c r="D21">
-        <v>0.335577404955103</v>
+        <v>0.1161578870272137</v>
       </c>
       <c r="E21">
-        <v>2.415437234035977</v>
+        <v>0.6825702534044922</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4031955138707701</v>
+        <v>0.4146023960103804</v>
       </c>
       <c r="H21">
-        <v>0.2688770750330178</v>
+        <v>0.5514895966920079</v>
       </c>
       <c r="I21">
-        <v>0.2002242738135145</v>
+        <v>0.4124556541530033</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.99910936438954</v>
+        <v>0.6142986868627531</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.369192294888393</v>
+        <v>1.8799106035911</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.879173659563179</v>
+        <v>0.5882163827702414</v>
       </c>
       <c r="C22">
-        <v>0.3653456384876392</v>
+        <v>0.1184039217787927</v>
       </c>
       <c r="D22">
-        <v>0.3616421082675458</v>
+        <v>0.1231899263840006</v>
       </c>
       <c r="E22">
-        <v>2.619956695319786</v>
+        <v>0.7323439220684094</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4263107535530821</v>
+        <v>0.4164360104881979</v>
       </c>
       <c r="H22">
-        <v>0.2742951997220899</v>
+        <v>0.5494269299599353</v>
       </c>
       <c r="I22">
-        <v>0.202151342508099</v>
+        <v>0.4095818509717724</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.143823569196911</v>
+        <v>0.6580979077889992</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.42985742799894</v>
+        <v>1.879676148838684</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.810763073100219</v>
+        <v>0.5675752904312787</v>
       </c>
       <c r="C23">
-        <v>0.3527712307587478</v>
+        <v>0.1146146697862775</v>
       </c>
       <c r="D23">
-        <v>0.3476984489491599</v>
+        <v>0.1194340542940324</v>
       </c>
       <c r="E23">
-        <v>2.510254845152829</v>
+        <v>0.7057660731069575</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4138204748943224</v>
+        <v>0.4154272477123016</v>
       </c>
       <c r="H23">
-        <v>0.271323601632389</v>
+        <v>0.5505033832049406</v>
       </c>
       <c r="I23">
-        <v>0.2010320232268086</v>
+        <v>0.4110913705984061</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.066508076772806</v>
+        <v>0.6347303401447562</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.396987922135708</v>
+        <v>1.879687013973779</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.552980184897137</v>
+        <v>0.4892743963633279</v>
       </c>
       <c r="C24">
-        <v>0.30547697795771</v>
+        <v>0.1002116372892772</v>
       </c>
       <c r="D24">
-        <v>0.2955581829130978</v>
+        <v>0.1052696086791371</v>
       </c>
       <c r="E24">
-        <v>2.105878170191957</v>
+        <v>0.6053762533719862</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3697186602605882</v>
+        <v>0.4122667353889966</v>
       </c>
       <c r="H24">
-        <v>0.2617520949940086</v>
+        <v>0.5551165710271135</v>
       </c>
       <c r="I24">
-        <v>0.198706360221081</v>
+        <v>0.4173409798814625</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.775260636421848</v>
+        <v>0.5460374466983353</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.282799490101723</v>
+        <v>1.882233617018301</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.276953681460157</v>
+        <v>0.4045674058705799</v>
       </c>
       <c r="C25">
-        <v>0.2549693566531488</v>
+        <v>0.08456735182578257</v>
       </c>
       <c r="D25">
-        <v>0.2404866519758002</v>
+        <v>0.09012059176609455</v>
       </c>
       <c r="E25">
-        <v>1.688247961624924</v>
+        <v>0.4976050485609704</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3280241332670641</v>
+        <v>0.4102557836502427</v>
       </c>
       <c r="H25">
-        <v>0.2546021581605373</v>
+        <v>0.5612356766135775</v>
       </c>
       <c r="I25">
-        <v>0.1998033683943845</v>
+        <v>0.4252139928083416</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.463529338680331</v>
+        <v>0.4499807566113816</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.178700388093802</v>
+        <v>1.890302124189645</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3419937204270411</v>
+        <v>1.074734418277586</v>
       </c>
       <c r="C2">
-        <v>0.07295521617012923</v>
+        <v>0.2180354911642297</v>
       </c>
       <c r="D2">
-        <v>0.0790759291399894</v>
+        <v>0.2006992801250931</v>
       </c>
       <c r="E2">
-        <v>0.4186173600666478</v>
+        <v>1.392192472575289</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4099646853786965</v>
+        <v>0.3015056471149649</v>
       </c>
       <c r="H2">
-        <v>0.566722113727046</v>
+        <v>0.2516891736364286</v>
       </c>
       <c r="I2">
-        <v>0.431979201775178</v>
+        <v>0.2032779264271483</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3789283569079771</v>
+        <v>1.235206736234403</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.900787633321301</v>
+        <v>1.115809988802027</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2994647181646997</v>
+        <v>0.9380009444454913</v>
       </c>
       <c r="C3">
-        <v>0.06502746772761725</v>
+        <v>0.1930851344655053</v>
       </c>
       <c r="D3">
-        <v>0.07165833778176989</v>
+        <v>0.1740997719580548</v>
       </c>
       <c r="E3">
-        <v>0.365274963597173</v>
+        <v>1.196763505218769</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4105030486526928</v>
+        <v>0.2857534380020397</v>
       </c>
       <c r="H3">
-        <v>0.5710512420052467</v>
+        <v>0.2510132524645527</v>
       </c>
       <c r="I3">
-        <v>0.437165556847571</v>
+        <v>0.2071020559419772</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3305766105088139</v>
+        <v>1.080833266419233</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.910712916604183</v>
+        <v>1.080593063142302</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2732938709733048</v>
+        <v>0.8541052398916236</v>
       </c>
       <c r="C4">
-        <v>0.06013130166671488</v>
+        <v>0.1777819827826903</v>
       </c>
       <c r="D4">
-        <v>0.06713703597539222</v>
+        <v>0.1579142011977268</v>
       </c>
       <c r="E4">
-        <v>0.3326033741979728</v>
+        <v>1.078778892631064</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4111944143402155</v>
+        <v>0.2770594472506929</v>
       </c>
       <c r="H4">
-        <v>0.5740103714446647</v>
+        <v>0.2511878116687427</v>
       </c>
       <c r="I4">
-        <v>0.4406458533377595</v>
+        <v>0.2101161142786836</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3007926697861762</v>
+        <v>0.986112307550286</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.918192594569561</v>
+        <v>1.062267656000728</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2626150629347421</v>
+        <v>0.8199194302206081</v>
       </c>
       <c r="C5">
-        <v>0.05812897051117716</v>
+        <v>0.17154691007606</v>
       </c>
       <c r="D5">
-        <v>0.06530291569288238</v>
+        <v>0.1513507727552792</v>
       </c>
       <c r="E5">
-        <v>0.3193082460111043</v>
+        <v>1.031128816411467</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4115666001412137</v>
+        <v>0.2737462676229612</v>
       </c>
       <c r="H5">
-        <v>0.5752918947514729</v>
+        <v>0.2514001397923735</v>
       </c>
       <c r="I5">
-        <v>0.4421383703937352</v>
+        <v>0.2115036324166653</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2886319761973368</v>
+        <v>0.9475140216322018</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.921588336167574</v>
+        <v>1.055580007118024</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2608410279604243</v>
+        <v>0.814242696426362</v>
       </c>
       <c r="C6">
-        <v>0.05779605774353058</v>
+        <v>0.1705115615666557</v>
       </c>
       <c r="D6">
-        <v>0.06499886603796767</v>
+        <v>0.1502627443897495</v>
       </c>
       <c r="E6">
-        <v>0.3171016918152105</v>
+        <v>1.023240402516691</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.411633856004471</v>
+        <v>0.2732095333210793</v>
       </c>
       <c r="H6">
-        <v>0.5755092588289443</v>
+        <v>0.2514437258450073</v>
       </c>
       <c r="I6">
-        <v>0.442390683606444</v>
+        <v>0.2117434165143237</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2866113005742079</v>
+        <v>0.9411044623351188</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.922173177353173</v>
+        <v>1.054515260667316</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2731499086519875</v>
+        <v>0.8536442044245689</v>
       </c>
       <c r="C7">
-        <v>0.06010432620882966</v>
+        <v>0.1776978938900555</v>
       </c>
       <c r="D7">
-        <v>0.06711226656943836</v>
+        <v>0.1578255594654081</v>
       </c>
       <c r="E7">
-        <v>0.3324239972883305</v>
+        <v>1.078134623367859</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4111990679172308</v>
+        <v>0.2770138552774739</v>
       </c>
       <c r="H7">
-        <v>0.5740273482536864</v>
+        <v>0.2511901125406624</v>
       </c>
       <c r="I7">
-        <v>0.4406656814063155</v>
+        <v>0.2101341924936087</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3006287607718434</v>
+        <v>0.9855917715599958</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.918236983773483</v>
+        <v>1.06217436833019</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3273420625438348</v>
+        <v>1.027568585261491</v>
       </c>
       <c r="C8">
-        <v>0.07022767759735871</v>
+        <v>0.2094272726579902</v>
       </c>
       <c r="D8">
-        <v>0.07651147508599365</v>
+        <v>0.1914945122713334</v>
       </c>
       <c r="E8">
-        <v>0.4002071868227546</v>
+        <v>1.324343975700103</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4100752578014024</v>
+        <v>0.2958612504834974</v>
       </c>
       <c r="H8">
-        <v>0.568152293517393</v>
+        <v>0.2513293679461199</v>
       </c>
       <c r="I8">
-        <v>0.4337059764904616</v>
+        <v>0.2044531634987727</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3622768889098609</v>
+        <v>1.181955834368836</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.903921891058133</v>
+        <v>1.10295217871537</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.433133462145264</v>
+        <v>1.369729678890792</v>
       </c>
       <c r="C9">
-        <v>0.08985165565974285</v>
+        <v>0.2719320837761217</v>
       </c>
       <c r="D9">
-        <v>0.09520643689737085</v>
+        <v>0.2589037710366426</v>
       </c>
       <c r="E9">
-        <v>0.5338462420115491</v>
+        <v>1.826871115584439</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4107475344981282</v>
+        <v>0.3413645224743931</v>
       </c>
       <c r="H9">
-        <v>0.5590219255403497</v>
+        <v>0.2566214775750808</v>
       </c>
       <c r="I9">
-        <v>0.4224111945678963</v>
+        <v>0.1989921470981422</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4823888465412836</v>
+        <v>1.568294267612799</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.886876139744686</v>
+        <v>1.211462605540078</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5105469197237085</v>
+        <v>1.622751476340056</v>
       </c>
       <c r="C10">
-        <v>0.1041294763322753</v>
+        <v>0.3182645897717578</v>
       </c>
       <c r="D10">
-        <v>0.1091038841048402</v>
+        <v>0.3096059226663215</v>
       </c>
       <c r="E10">
-        <v>0.6325801516627507</v>
+        <v>2.213940488437558</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4130139381484526</v>
+        <v>0.3811822073732145</v>
       </c>
       <c r="H10">
-        <v>0.5537743890861861</v>
+        <v>0.2640809992390842</v>
       </c>
       <c r="I10">
-        <v>0.415555380923557</v>
+        <v>0.1990318811504466</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.570141579896756</v>
+        <v>1.854076365413079</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.881122114504421</v>
+        <v>1.31215790746333</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5456930962515969</v>
+        <v>1.738451467512988</v>
       </c>
       <c r="C11">
-        <v>0.1105943320977758</v>
+        <v>0.3394908926896676</v>
       </c>
       <c r="D11">
-        <v>0.1154619028305461</v>
+        <v>0.3330073260281239</v>
       </c>
       <c r="E11">
-        <v>0.6776409264464149</v>
+        <v>2.39539691032769</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4144340397891995</v>
+        <v>0.4009709424475716</v>
       </c>
       <c r="H11">
-        <v>0.5517050126349829</v>
+        <v>0.2683750212682554</v>
       </c>
       <c r="I11">
-        <v>0.4127514227220495</v>
+        <v>0.2000731716880821</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6099521553671252</v>
+        <v>1.984795352602532</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.879984846479402</v>
+        <v>1.36339333998356</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5589915640219658</v>
+        <v>1.782371649346061</v>
       </c>
       <c r="C12">
-        <v>0.1130380222911924</v>
+        <v>0.3475556889113705</v>
       </c>
       <c r="D12">
-        <v>0.1178747007182892</v>
+        <v>0.3419244334302931</v>
       </c>
       <c r="E12">
-        <v>0.6947271311692589</v>
+        <v>2.465024616984891</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4150280705964633</v>
+        <v>0.4087318330336274</v>
       </c>
       <c r="H12">
-        <v>0.5509671449164983</v>
+        <v>0.2701420776029693</v>
       </c>
       <c r="I12">
-        <v>0.4117350464549325</v>
+        <v>0.2006277965504566</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.625011307833546</v>
+        <v>2.034424147352382</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.879767866987891</v>
+        <v>1.383655777852283</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5561279834765855</v>
+        <v>1.772907533640961</v>
       </c>
       <c r="C13">
-        <v>0.1125119271140989</v>
+        <v>0.3458175045859946</v>
       </c>
       <c r="D13">
-        <v>0.1173548326529783</v>
+        <v>0.3400013872521015</v>
       </c>
       <c r="E13">
-        <v>0.6910462768777563</v>
+        <v>2.449985957551675</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4148976278063685</v>
+        <v>0.407048050251845</v>
       </c>
       <c r="H13">
-        <v>0.5511240216500681</v>
+        <v>0.2697550448300348</v>
       </c>
       <c r="I13">
-        <v>0.411951918632429</v>
+        <v>0.2005009958476869</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6217687826131453</v>
+        <v>2.023729557102286</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.879805080909335</v>
+        <v>1.379252264986803</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5467873857009522</v>
+        <v>1.742062533583436</v>
       </c>
       <c r="C14">
-        <v>0.1107954647394251</v>
+        <v>0.3401538172699645</v>
       </c>
       <c r="D14">
-        <v>0.1156603019985027</v>
+        <v>0.3337397868061345</v>
       </c>
       <c r="E14">
-        <v>0.679046155061684</v>
+        <v>2.401106034161202</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4144817815305828</v>
+        <v>0.4016039180102098</v>
       </c>
       <c r="H14">
-        <v>0.5516433903215301</v>
+        <v>0.2685175025224709</v>
       </c>
       <c r="I14">
-        <v>0.4126668936187095</v>
+        <v>0.2001155084749371</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6111914101640252</v>
+        <v>1.988875616100898</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.879962708302145</v>
+        <v>1.365042608263394</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5410645976724311</v>
+        <v>1.723183684704452</v>
       </c>
       <c r="C15">
-        <v>0.1097435056013865</v>
+        <v>0.3366883119123258</v>
       </c>
       <c r="D15">
-        <v>0.1146230235927277</v>
+        <v>0.3299118240247907</v>
       </c>
       <c r="E15">
-        <v>0.6716987348148677</v>
+        <v>2.371289191780178</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4142344009781453</v>
+        <v>0.3983048687790784</v>
       </c>
       <c r="H15">
-        <v>0.5519674799778898</v>
+        <v>0.2677781940783461</v>
       </c>
       <c r="I15">
-        <v>0.4131107563433538</v>
+        <v>0.1999006745823522</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6047103293468012</v>
+        <v>1.967544085209681</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.880087111294557</v>
+        <v>1.356453373417224</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5082485810177673</v>
+        <v>1.615204012079175</v>
       </c>
       <c r="C16">
-        <v>0.10370636932754</v>
+        <v>0.3168808537427878</v>
       </c>
       <c r="D16">
-        <v>0.1086890951216049</v>
+        <v>0.3080839542915328</v>
       </c>
       <c r="E16">
-        <v>0.6296384063867464</v>
+        <v>2.202201737215475</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4129289879773808</v>
+        <v>0.3799248833082913</v>
       </c>
       <c r="H16">
-        <v>0.5539160274922779</v>
+        <v>0.2638194567415297</v>
       </c>
       <c r="I16">
-        <v>0.4157449738133714</v>
+        <v>0.1989855198747037</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5675376258630536</v>
+        <v>1.845550088916411</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.881226294346334</v>
+        <v>1.308925467351912</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4880987513508046</v>
+        <v>1.549129725583242</v>
       </c>
       <c r="C17">
-        <v>0.09999499895883446</v>
+        <v>0.3047715334273562</v>
       </c>
       <c r="D17">
-        <v>0.1050580267680061</v>
+        <v>0.2947843706868412</v>
       </c>
       <c r="E17">
-        <v>0.6038743717326582</v>
+        <v>2.099944156362412</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4122280432832639</v>
+        <v>0.3690965180467032</v>
       </c>
       <c r="H17">
-        <v>0.5551928306325067</v>
+        <v>0.261629429542694</v>
       </c>
       <c r="I17">
-        <v>0.4174417160432391</v>
+        <v>0.1986951857604993</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5447051127510463</v>
+        <v>1.770911299471322</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.882304860174258</v>
+        <v>1.281213738082926</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.476502588530451</v>
+        <v>1.511180567762665</v>
       </c>
       <c r="C18">
-        <v>0.09785747867576333</v>
+        <v>0.2978202826370762</v>
       </c>
       <c r="D18">
-        <v>0.1029729221839659</v>
+        <v>0.2871660410059036</v>
       </c>
       <c r="E18">
-        <v>0.5890692449155779</v>
+        <v>2.041624987145298</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.411861483740708</v>
+        <v>0.3630243155871256</v>
       </c>
       <c r="H18">
-        <v>0.5559571184720369</v>
+        <v>0.2604538101974896</v>
       </c>
       <c r="I18">
-        <v>0.4184472570759823</v>
+        <v>0.1986236490009823</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5315622723816205</v>
+        <v>1.72804670096366</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.883064503384333</v>
+        <v>1.26578044785964</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4725752272387354</v>
+        <v>1.498340478598834</v>
       </c>
       <c r="C19">
-        <v>0.09713326566013336</v>
+        <v>0.2954689087517437</v>
       </c>
       <c r="D19">
-        <v>0.1022675244988847</v>
+        <v>0.2845917642915339</v>
       </c>
       <c r="E19">
-        <v>0.5840587804662363</v>
+        <v>2.021960404200669</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4117436503326672</v>
+        <v>0.3609943976453565</v>
       </c>
       <c r="H19">
-        <v>0.5562210272735513</v>
+        <v>0.2600698639734986</v>
       </c>
       <c r="I19">
-        <v>0.418792798470502</v>
+        <v>0.198615439763735</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.52711060296852</v>
+        <v>1.713544024244356</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.883345602203718</v>
+        <v>1.260639544540936</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4902444137623263</v>
+        <v>1.556157605827082</v>
       </c>
       <c r="C20">
-        <v>0.1003903749126778</v>
+        <v>0.3060591352158895</v>
       </c>
       <c r="D20">
-        <v>0.1054442095149426</v>
+        <v>0.2961968514691904</v>
       </c>
       <c r="E20">
-        <v>0.6066155711565813</v>
+        <v>2.110777278434199</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4122988692360394</v>
+        <v>0.3702328884346855</v>
       </c>
       <c r="H20">
-        <v>0.5550538172705757</v>
+        <v>0.2618537853442717</v>
       </c>
       <c r="I20">
-        <v>0.4172580282690141</v>
+        <v>0.1987161212722199</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.547136731234616</v>
+        <v>1.778849753694146</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.882175624038723</v>
+        <v>1.284110797647259</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5495312390005154</v>
+        <v>1.751119374022323</v>
       </c>
       <c r="C21">
-        <v>0.1112997515819529</v>
+        <v>0.3418166049833644</v>
       </c>
       <c r="D21">
-        <v>0.1161578870272137</v>
+        <v>0.3355774049552736</v>
       </c>
       <c r="E21">
-        <v>0.6825702534044922</v>
+        <v>2.415437234035991</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4146023960103804</v>
+        <v>0.4031955138708412</v>
       </c>
       <c r="H21">
-        <v>0.5514895966920079</v>
+        <v>0.2688770750331173</v>
       </c>
       <c r="I21">
-        <v>0.4124556541530033</v>
+        <v>0.2002242738135145</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6142986868627531</v>
+        <v>1.99910936438954</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.8799106035911</v>
+        <v>1.369192294888421</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5882163827702414</v>
+        <v>1.879173659563151</v>
       </c>
       <c r="C22">
-        <v>0.1184039217787927</v>
+        <v>0.3653456384879803</v>
       </c>
       <c r="D22">
-        <v>0.1231899263840006</v>
+        <v>0.36164210826756</v>
       </c>
       <c r="E22">
-        <v>0.7323439220684094</v>
+        <v>2.619956695319843</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4164360104881979</v>
+        <v>0.4263107535530679</v>
       </c>
       <c r="H22">
-        <v>0.5494269299599353</v>
+        <v>0.2742951997221184</v>
       </c>
       <c r="I22">
-        <v>0.4095818509717724</v>
+        <v>0.2021513425081061</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6580979077889992</v>
+        <v>2.143823569196798</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.879676148838684</v>
+        <v>1.429857427998854</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5675752904312787</v>
+        <v>1.810763073100333</v>
       </c>
       <c r="C23">
-        <v>0.1146146697862775</v>
+        <v>0.3527712307589752</v>
       </c>
       <c r="D23">
-        <v>0.1194340542940324</v>
+        <v>0.3476984489489894</v>
       </c>
       <c r="E23">
-        <v>0.7057660731069575</v>
+        <v>2.510254845152858</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4154272477123016</v>
+        <v>0.4138204748943508</v>
       </c>
       <c r="H23">
-        <v>0.5505033832049406</v>
+        <v>0.271323601632389</v>
       </c>
       <c r="I23">
-        <v>0.4110913705984061</v>
+        <v>0.201032023226805</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6347303401447562</v>
+        <v>2.066508076773005</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.879687013973779</v>
+        <v>1.396987922135764</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4892743963633279</v>
+        <v>1.552980184897024</v>
       </c>
       <c r="C24">
-        <v>0.1002116372892772</v>
+        <v>0.30547697795771</v>
       </c>
       <c r="D24">
-        <v>0.1052696086791371</v>
+        <v>0.2955581829130836</v>
       </c>
       <c r="E24">
-        <v>0.6053762533719862</v>
+        <v>2.105878170192042</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4122667353889966</v>
+        <v>0.3697186602605882</v>
       </c>
       <c r="H24">
-        <v>0.5551165710271135</v>
+        <v>0.2617520949940086</v>
       </c>
       <c r="I24">
-        <v>0.4173409798814625</v>
+        <v>0.1987063602210881</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5460374466983353</v>
+        <v>1.775260636421763</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.882233617018301</v>
+        <v>1.282799490101723</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4045674058705799</v>
+        <v>1.276953681459929</v>
       </c>
       <c r="C25">
-        <v>0.08456735182578257</v>
+        <v>0.2549693566530635</v>
       </c>
       <c r="D25">
-        <v>0.09012059176609455</v>
+        <v>0.2404866519757576</v>
       </c>
       <c r="E25">
-        <v>0.4976050485609704</v>
+        <v>1.688247961624924</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4102557836502427</v>
+        <v>0.3280241332671068</v>
       </c>
       <c r="H25">
-        <v>0.5612356766135775</v>
+        <v>0.2546021581605515</v>
       </c>
       <c r="I25">
-        <v>0.4252139928083416</v>
+        <v>0.1998033683943738</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4499807566113816</v>
+        <v>1.463529338680331</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.890302124189645</v>
+        <v>1.178700388093802</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.074734418277586</v>
+        <v>0.9373609145198998</v>
       </c>
       <c r="C2">
-        <v>0.2180354911642297</v>
+        <v>0.2209340464677041</v>
       </c>
       <c r="D2">
-        <v>0.2006992801250931</v>
+        <v>0.1982359858389344</v>
       </c>
       <c r="E2">
-        <v>1.392192472575289</v>
+        <v>1.308558871475967</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3015056471149649</v>
+        <v>0.3685563877398721</v>
       </c>
       <c r="H2">
-        <v>0.2516891736364286</v>
+        <v>0.006407855878676094</v>
       </c>
       <c r="I2">
-        <v>0.2032779264271483</v>
+        <v>0.001182078888661842</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3070386256087332</v>
       </c>
       <c r="K2">
-        <v>1.235206736234403</v>
+        <v>0.2717591301278333</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.091865242092126</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.115809988802027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7078474645779629</v>
+      </c>
+      <c r="Q2">
+        <v>1.372729811031064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9380009444454913</v>
+        <v>0.8162485449574035</v>
       </c>
       <c r="C3">
-        <v>0.1930851344655053</v>
+        <v>0.1961992503330237</v>
       </c>
       <c r="D3">
-        <v>0.1740997719580548</v>
+        <v>0.1722528223207433</v>
       </c>
       <c r="E3">
-        <v>1.196763505218769</v>
+        <v>1.140378711371042</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2857534380020397</v>
+        <v>0.3478048203436828</v>
       </c>
       <c r="H3">
-        <v>0.2510132524645527</v>
+        <v>0.004284000454617853</v>
       </c>
       <c r="I3">
-        <v>0.2071020559419772</v>
+        <v>0.0006774107117299977</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3012176751204052</v>
       </c>
       <c r="K3">
-        <v>1.080833266419233</v>
+        <v>0.2695248259538552</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9530460147135216</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.080593063142302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.732619687105375</v>
+      </c>
+      <c r="Q3">
+        <v>1.316274592279782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8541052398916236</v>
+        <v>0.7415176437291962</v>
       </c>
       <c r="C4">
-        <v>0.1777819827826903</v>
+        <v>0.1811697889496884</v>
       </c>
       <c r="D4">
-        <v>0.1579142011977268</v>
+        <v>0.1564022386887558</v>
       </c>
       <c r="E4">
-        <v>1.078778892631064</v>
+        <v>1.037253370287488</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2770594472506929</v>
+        <v>0.335367837428393</v>
       </c>
       <c r="H4">
-        <v>0.2511878116687427</v>
+        <v>0.003154529156238484</v>
       </c>
       <c r="I4">
-        <v>0.2101161142786836</v>
+        <v>0.0005086892494001738</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2978595633799372</v>
       </c>
       <c r="K4">
-        <v>0.986112307550286</v>
+        <v>0.2683245746114835</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8677189568691119</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.062267656000728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.748370624575001</v>
+      </c>
+      <c r="Q4">
+        <v>1.282701304223139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8199194302206081</v>
+        <v>0.7103008116126261</v>
       </c>
       <c r="C5">
-        <v>0.17154691007606</v>
+        <v>0.1754727382704289</v>
       </c>
       <c r="D5">
-        <v>0.1513507727552792</v>
+        <v>0.1499651640034187</v>
       </c>
       <c r="E5">
-        <v>1.031128816411467</v>
+        <v>0.9952371887045928</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2737462676229612</v>
+        <v>0.3300141742222635</v>
       </c>
       <c r="H5">
-        <v>0.2514001397923735</v>
+        <v>0.00273419388314422</v>
       </c>
       <c r="I5">
-        <v>0.2115036324166653</v>
+        <v>0.0005369099905880859</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2963591846321734</v>
       </c>
       <c r="K5">
-        <v>0.9475140216322018</v>
+        <v>0.2675922762761118</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8329194706807073</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.055580007118024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7549226952469414</v>
+      </c>
+      <c r="Q5">
+        <v>1.268136400653972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.814242696426362</v>
+        <v>0.7042928085716653</v>
       </c>
       <c r="C6">
-        <v>0.1705115615666557</v>
+        <v>0.1750096081963335</v>
       </c>
       <c r="D6">
-        <v>0.1502627443897495</v>
+        <v>0.1488966531915992</v>
       </c>
       <c r="E6">
-        <v>1.023240402516691</v>
+        <v>0.9882469441827908</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2732095333210793</v>
+        <v>0.3286931975647178</v>
       </c>
       <c r="H6">
-        <v>0.2514437258450073</v>
+        <v>0.00266573858709318</v>
       </c>
       <c r="I6">
-        <v>0.2117434165143237</v>
+        <v>0.0006285130336998179</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2958882491441273</v>
       </c>
       <c r="K6">
-        <v>0.9411044623351188</v>
+        <v>0.2671257132108558</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.827140883314172</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.054515260667316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7560214640296543</v>
+      </c>
+      <c r="Q6">
+        <v>1.264337330960288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8536442044245689</v>
+        <v>0.7388529086686901</v>
       </c>
       <c r="C7">
-        <v>0.1776978938900555</v>
+        <v>0.1824088621466444</v>
       </c>
       <c r="D7">
-        <v>0.1578255594654081</v>
+        <v>0.1563126532759185</v>
       </c>
       <c r="E7">
-        <v>1.078134623367859</v>
+        <v>1.036647311857081</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2770138552774739</v>
+        <v>0.3341034017921416</v>
       </c>
       <c r="H7">
-        <v>0.2511901125406624</v>
+        <v>0.003145642234148927</v>
       </c>
       <c r="I7">
-        <v>0.2101341924936087</v>
+        <v>0.0007260020108796894</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2972253973047998</v>
       </c>
       <c r="K7">
-        <v>0.9855917715599958</v>
+        <v>0.2673659619620388</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8672542439776691</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.06217436833019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7484769429754028</v>
+      </c>
+      <c r="Q7">
+        <v>1.278691371114519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.027568585261491</v>
+        <v>0.8926753513013352</v>
       </c>
       <c r="C8">
-        <v>0.2094272726579902</v>
+        <v>0.2141288488757738</v>
       </c>
       <c r="D8">
-        <v>0.1914945122713334</v>
+        <v>0.1892496016421035</v>
       </c>
       <c r="E8">
-        <v>1.324343975700103</v>
+        <v>1.250478737707184</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2958612504834974</v>
+        <v>0.3597559023662242</v>
       </c>
       <c r="H8">
-        <v>0.2513293679461199</v>
+        <v>0.005632304006196298</v>
       </c>
       <c r="I8">
-        <v>0.2044531634987727</v>
+        <v>0.001237186233117527</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3041756351088409</v>
       </c>
       <c r="K8">
-        <v>1.181955834368836</v>
+        <v>0.2697003627840537</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.044019078869553</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.10295217871537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.716346765061612</v>
+      </c>
+      <c r="Q8">
+        <v>1.34798483387182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.369729678890792</v>
+        <v>1.195588164231481</v>
       </c>
       <c r="C9">
-        <v>0.2719320837761217</v>
+        <v>0.2753860118244944</v>
       </c>
       <c r="D9">
-        <v>0.2589037710366426</v>
+        <v>0.2548080023006492</v>
       </c>
       <c r="E9">
-        <v>1.826871115584439</v>
+        <v>1.671683238958195</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3413645224743931</v>
+        <v>0.4148711639369083</v>
       </c>
       <c r="H9">
-        <v>0.2566214775750808</v>
+        <v>0.01204715431740339</v>
       </c>
       <c r="I9">
-        <v>0.1989921470981422</v>
+        <v>0.003126506706969678</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3207244629669788</v>
       </c>
       <c r="K9">
-        <v>1.568294267612799</v>
+        <v>0.2774244983981156</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.390250069265079</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.211462605540078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.6576865356716013</v>
+      </c>
+      <c r="Q9">
+        <v>1.500122775286087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.622751476340056</v>
+        <v>1.411113954312668</v>
       </c>
       <c r="C10">
-        <v>0.3182645897717578</v>
+        <v>0.3196118636342931</v>
       </c>
       <c r="D10">
-        <v>0.3096059226663215</v>
+        <v>0.3037211807747155</v>
       </c>
       <c r="E10">
-        <v>2.213940488437558</v>
+        <v>1.883110051838003</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3811822073732145</v>
+        <v>0.4501610491475105</v>
       </c>
       <c r="H10">
-        <v>0.2640809992390842</v>
+        <v>0.01738519133520988</v>
       </c>
       <c r="I10">
-        <v>0.1990318811504466</v>
+        <v>0.005432652663597715</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3306302119113411</v>
       </c>
       <c r="K10">
-        <v>1.854076365413079</v>
+        <v>0.2807064687210357</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.637510306514059</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.31215790746333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.6188060307974901</v>
+      </c>
+      <c r="Q10">
+        <v>1.596108699226363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.738451467512988</v>
+        <v>1.466961174866924</v>
       </c>
       <c r="C11">
-        <v>0.3394908926896676</v>
+        <v>0.3198540455535692</v>
       </c>
       <c r="D11">
-        <v>0.3330073260281239</v>
+        <v>0.3257392694072223</v>
       </c>
       <c r="E11">
-        <v>2.39539691032769</v>
+        <v>1.207236604760311</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4009709424475716</v>
+        <v>0.4085583983686689</v>
       </c>
       <c r="H11">
-        <v>0.2683750212682554</v>
+        <v>0.03330710401197834</v>
       </c>
       <c r="I11">
-        <v>0.2000731716880821</v>
+        <v>0.006465854069225507</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3068784053340323</v>
       </c>
       <c r="K11">
-        <v>1.984795352602532</v>
+        <v>0.2560412890622636</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.68588239683092</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.36339333998356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.6154095775605519</v>
+      </c>
+      <c r="Q11">
+        <v>1.458313281119842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.782371649346061</v>
+        <v>1.471964869018024</v>
       </c>
       <c r="C12">
-        <v>0.3475556889113705</v>
+        <v>0.3089371496823503</v>
       </c>
       <c r="D12">
-        <v>0.3419244334302931</v>
+        <v>0.3339420698802229</v>
       </c>
       <c r="E12">
-        <v>2.465024616984891</v>
+        <v>0.7226293176511831</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4087318330336274</v>
+        <v>0.3691139544360453</v>
       </c>
       <c r="H12">
-        <v>0.2701420776029693</v>
+        <v>0.06979835491722497</v>
       </c>
       <c r="I12">
-        <v>0.2006277965504566</v>
+        <v>0.006487872119294913</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2860141725485335</v>
       </c>
       <c r="K12">
-        <v>2.034424147352382</v>
+        <v>0.2366163645308674</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.674173329684635</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.383655777852283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.6236751655085833</v>
+      </c>
+      <c r="Q12">
+        <v>1.331040320110617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.772907533640961</v>
+        <v>1.43457128925732</v>
       </c>
       <c r="C13">
-        <v>0.3458175045859946</v>
+        <v>0.2910249731358192</v>
       </c>
       <c r="D13">
-        <v>0.3400013872521015</v>
+        <v>0.3318531269600129</v>
       </c>
       <c r="E13">
-        <v>2.449985957551675</v>
+        <v>0.3570661313976373</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.407048050251845</v>
+        <v>0.3272188847451787</v>
       </c>
       <c r="H13">
-        <v>0.2697550448300348</v>
+        <v>0.1234919675567312</v>
       </c>
       <c r="I13">
-        <v>0.2005009958476869</v>
+        <v>0.00604853026981278</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2651807450458818</v>
       </c>
       <c r="K13">
-        <v>2.023729557102286</v>
+        <v>0.2185690122358714</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.615737676255407</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.379252264986803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.6407596238692932</v>
+      </c>
+      <c r="Q13">
+        <v>1.198561765192693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.742062533583436</v>
+        <v>1.388704163675726</v>
       </c>
       <c r="C14">
-        <v>0.3401538172699645</v>
+        <v>0.2758907213809323</v>
       </c>
       <c r="D14">
-        <v>0.3337397868061345</v>
+        <v>0.3257386719506457</v>
       </c>
       <c r="E14">
-        <v>2.401106034161202</v>
+        <v>0.1732309475957692</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4016039180102098</v>
+        <v>0.2969223143195023</v>
       </c>
       <c r="H14">
-        <v>0.2685175025224709</v>
+        <v>0.1715352808491559</v>
       </c>
       <c r="I14">
-        <v>0.2001155084749371</v>
+        <v>0.005628829913695732</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2506205991463801</v>
       </c>
       <c r="K14">
-        <v>1.988875616100898</v>
+        <v>0.2065061038224201</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.554052939803341</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.365042608263394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.6569573523062928</v>
+      </c>
+      <c r="Q14">
+        <v>1.103785462056251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.723183684704452</v>
+        <v>1.367686113268377</v>
       </c>
       <c r="C15">
-        <v>0.3366883119123258</v>
+        <v>0.2711813060682715</v>
       </c>
       <c r="D15">
-        <v>0.3299118240247907</v>
+        <v>0.3220564422284014</v>
       </c>
       <c r="E15">
-        <v>2.371289191780178</v>
+        <v>0.1374510901724157</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3983048687790784</v>
+        <v>0.2885485795821126</v>
       </c>
       <c r="H15">
-        <v>0.2677781940783461</v>
+        <v>0.183616187147905</v>
       </c>
       <c r="I15">
-        <v>0.1999006745823522</v>
+        <v>0.005531756695270396</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2468714321209546</v>
       </c>
       <c r="K15">
-        <v>1.967544085209681</v>
+        <v>0.2035234720593344</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.529213831520678</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.356453373417224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.662516832874033</v>
+      </c>
+      <c r="Q15">
+        <v>1.078150281484568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.615204012079175</v>
+        <v>1.282145188927103</v>
       </c>
       <c r="C16">
-        <v>0.3168808537427878</v>
+        <v>0.2570954749673575</v>
       </c>
       <c r="D16">
-        <v>0.3080839542915328</v>
+        <v>0.3012162636041182</v>
       </c>
       <c r="E16">
-        <v>2.202201737215475</v>
+        <v>0.1346293590982448</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3799248833082913</v>
+        <v>0.2817661048155955</v>
       </c>
       <c r="H16">
-        <v>0.2638194567415297</v>
+        <v>0.1693041385233016</v>
       </c>
       <c r="I16">
-        <v>0.1989855198747037</v>
+        <v>0.004745385168158478</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.246586582603463</v>
       </c>
       <c r="K16">
-        <v>1.845550088916411</v>
+        <v>0.2052555114850847</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.436287677945757</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.308925467351912</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.6736077097319182</v>
+      </c>
+      <c r="Q16">
+        <v>1.062998895690043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.549129725583242</v>
+        <v>1.240761702777746</v>
       </c>
       <c r="C17">
-        <v>0.3047715334273562</v>
+        <v>0.2542888545124669</v>
       </c>
       <c r="D17">
-        <v>0.2947843706868412</v>
+        <v>0.2885521085773064</v>
       </c>
       <c r="E17">
-        <v>2.099944156362412</v>
+        <v>0.2166324143147946</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3690965180467032</v>
+        <v>0.2924456134060733</v>
       </c>
       <c r="H17">
-        <v>0.261629429542694</v>
+        <v>0.1309413187404544</v>
       </c>
       <c r="I17">
-        <v>0.1986951857604993</v>
+        <v>0.004390623710550656</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2540615556093186</v>
       </c>
       <c r="K17">
-        <v>1.770911299471322</v>
+        <v>0.212921762556455</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.397635245429143</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.281213738082926</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.6737296072547849</v>
+      </c>
+      <c r="Q17">
+        <v>1.101187356886683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.511180567762665</v>
+        <v>1.2344636171714</v>
       </c>
       <c r="C18">
-        <v>0.2978202826370762</v>
+        <v>0.2600351271417338</v>
       </c>
       <c r="D18">
-        <v>0.2871660410059036</v>
+        <v>0.2813991695382896</v>
       </c>
       <c r="E18">
-        <v>2.041624987145298</v>
+        <v>0.4436198493324426</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3630243155871256</v>
+        <v>0.3209036826014682</v>
       </c>
       <c r="H18">
-        <v>0.2604538101974896</v>
+        <v>0.07864040173107867</v>
       </c>
       <c r="I18">
-        <v>0.1986236490009823</v>
+        <v>0.004087977555101041</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2697028315716281</v>
       </c>
       <c r="K18">
-        <v>1.72804670096366</v>
+        <v>0.2275373353255965</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.401227887154164</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.26578044785964</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.665324885154341</v>
+      </c>
+      <c r="Q18">
+        <v>1.194222967841569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.498340478598834</v>
+        <v>1.252654510666474</v>
       </c>
       <c r="C19">
-        <v>0.2954689087517437</v>
+        <v>0.2751449068288849</v>
       </c>
       <c r="D19">
-        <v>0.2845917642915339</v>
+        <v>0.2791626073909725</v>
       </c>
       <c r="E19">
-        <v>2.021960404200669</v>
+        <v>0.8675097070486117</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3609943976453565</v>
+        <v>0.3611638752978763</v>
       </c>
       <c r="H19">
-        <v>0.2600698639734986</v>
+        <v>0.0353724486259992</v>
       </c>
       <c r="I19">
-        <v>0.198615439763735</v>
+        <v>0.004367576290053243</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2903085761946045</v>
       </c>
       <c r="K19">
-        <v>1.713544024244356</v>
+        <v>0.2459192156032728</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.438986780874188</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.260639544540936</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.653509040447819</v>
+      </c>
+      <c r="Q19">
+        <v>1.322730444574006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.556157605827082</v>
+        <v>1.347240309935671</v>
       </c>
       <c r="C20">
-        <v>0.3060591352158895</v>
+        <v>0.3120565204913675</v>
       </c>
       <c r="D20">
-        <v>0.2961968514691904</v>
+        <v>0.2908001626540937</v>
       </c>
       <c r="E20">
-        <v>2.110777278434199</v>
+        <v>1.823191327142339</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3702328884346855</v>
+        <v>0.4367737877663274</v>
       </c>
       <c r="H20">
-        <v>0.2618537853442717</v>
+        <v>0.01584767668666753</v>
       </c>
       <c r="I20">
-        <v>0.1987161212722199</v>
+        <v>0.005450470369949834</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.325918475022192</v>
       </c>
       <c r="K20">
-        <v>1.778849753694146</v>
+        <v>0.2767456287755401</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.572263357019949</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.284110797647259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.6292821160215762</v>
+      </c>
+      <c r="Q20">
+        <v>1.557750921268195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.751119374022323</v>
+        <v>1.52041808444244</v>
       </c>
       <c r="C21">
-        <v>0.3418166049833644</v>
+        <v>0.3495747940085607</v>
       </c>
       <c r="D21">
-        <v>0.3355774049552736</v>
+        <v>0.3287275619192371</v>
       </c>
       <c r="E21">
-        <v>2.415437234035991</v>
+        <v>2.141239535514529</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4031955138708412</v>
+        <v>0.4756243128704654</v>
       </c>
       <c r="H21">
-        <v>0.2688770750331173</v>
+        <v>0.02117912318880388</v>
       </c>
       <c r="I21">
-        <v>0.2002242738135145</v>
+        <v>0.007488382227584189</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3393721869699391</v>
       </c>
       <c r="K21">
-        <v>1.99910936438954</v>
+        <v>0.2848213195118987</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.773576922326612</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.369192294888421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.5986281723704341</v>
+      </c>
+      <c r="Q21">
+        <v>1.668614955583877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.879173659563151</v>
+        <v>1.634199271327475</v>
       </c>
       <c r="C22">
-        <v>0.3653456384879803</v>
+        <v>0.3712863447117059</v>
       </c>
       <c r="D22">
-        <v>0.36164210826756</v>
+        <v>0.3537117363475772</v>
       </c>
       <c r="E22">
-        <v>2.619956695319843</v>
+        <v>2.298961565149199</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4263107535530679</v>
+        <v>0.4996958110561422</v>
       </c>
       <c r="H22">
-        <v>0.2742951997221184</v>
+        <v>0.02467980974072947</v>
       </c>
       <c r="I22">
-        <v>0.2021513425081061</v>
+        <v>0.008716312790658876</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3475973381818989</v>
       </c>
       <c r="K22">
-        <v>2.143823569196798</v>
+        <v>0.2900433767643165</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.901631795452147</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.429857427998854</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.5796035982091894</v>
+      </c>
+      <c r="Q22">
+        <v>1.737075000189293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.810763073100333</v>
+        <v>1.576233488142492</v>
       </c>
       <c r="C23">
-        <v>0.3527712307589752</v>
+        <v>0.3580495096736342</v>
       </c>
       <c r="D23">
-        <v>0.3476984489489894</v>
+        <v>0.3403617495267497</v>
       </c>
       <c r="E23">
-        <v>2.510254845152858</v>
+        <v>2.214763052294671</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4138204748943508</v>
+        <v>0.4882069605803991</v>
       </c>
       <c r="H23">
-        <v>0.271323601632389</v>
+        <v>0.02279236878092283</v>
       </c>
       <c r="I23">
-        <v>0.201032023226805</v>
+        <v>0.00777844142328199</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3438940145658478</v>
       </c>
       <c r="K23">
-        <v>2.066508076773005</v>
+        <v>0.2883335096327464</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.833268821411707</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.396987922135764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.5895106546516402</v>
+      </c>
+      <c r="Q23">
+        <v>1.704854814698507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.552980184897024</v>
+        <v>1.352035150628268</v>
       </c>
       <c r="C24">
-        <v>0.30547697795771</v>
+        <v>0.3110308516655493</v>
       </c>
       <c r="D24">
-        <v>0.2955581829130836</v>
+        <v>0.2902305747413578</v>
       </c>
       <c r="E24">
-        <v>2.105878170192042</v>
+        <v>1.897300391821048</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3697186602605882</v>
+        <v>0.4435230652575513</v>
       </c>
       <c r="H24">
-        <v>0.2617520949940086</v>
+        <v>0.01619236352073017</v>
       </c>
       <c r="I24">
-        <v>0.1987063602210881</v>
+        <v>0.005035102884490605</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3293492382294829</v>
       </c>
       <c r="K24">
-        <v>1.775260636421763</v>
+        <v>0.2806322250779694</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.574790456694643</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.282799490101723</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.6286016318157017</v>
+      </c>
+      <c r="Q24">
+        <v>1.579243220245019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.276953681459929</v>
+        <v>1.109776246520141</v>
       </c>
       <c r="C25">
-        <v>0.2549693566530635</v>
+        <v>0.2610722177731191</v>
       </c>
       <c r="D25">
-        <v>0.2404866519757576</v>
+        <v>0.2369413887006289</v>
       </c>
       <c r="E25">
-        <v>1.688247961624924</v>
+        <v>1.557358902436746</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3280241332671068</v>
+        <v>0.3974797696949253</v>
       </c>
       <c r="H25">
-        <v>0.2546021581605515</v>
+        <v>0.01011787707236337</v>
       </c>
       <c r="I25">
-        <v>0.1998033683943738</v>
+        <v>0.002846564045734468</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3149343970511467</v>
       </c>
       <c r="K25">
-        <v>1.463529338680331</v>
+        <v>0.2734660519851921</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.296578668678166</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.178700388093802</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6732354465340453</v>
+      </c>
+      <c r="Q25">
+        <v>1.450961508488206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9373609145198998</v>
+        <v>0.9007077036203839</v>
       </c>
       <c r="C2">
-        <v>0.2209340464677041</v>
+        <v>0.2375852491730654</v>
       </c>
       <c r="D2">
-        <v>0.1982359858389344</v>
+        <v>0.1982420700545049</v>
       </c>
       <c r="E2">
-        <v>1.308558871475967</v>
+        <v>1.308636319874822</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3685563877398721</v>
+        <v>0.327983584400819</v>
       </c>
       <c r="H2">
-        <v>0.006407855878676094</v>
+        <v>0.006415513001656215</v>
       </c>
       <c r="I2">
-        <v>0.001182078888661842</v>
+        <v>0.00143684635399044</v>
       </c>
       <c r="J2">
-        <v>0.3070386256087332</v>
+        <v>0.3327696408900493</v>
       </c>
       <c r="K2">
-        <v>0.2717591301278333</v>
+        <v>0.2505700965018711</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.143271868498033</v>
       </c>
       <c r="M2">
-        <v>1.091865242092126</v>
+        <v>0.05686344358862705</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.091703720129033</v>
       </c>
       <c r="P2">
-        <v>0.7078474645779629</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.372729811031064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7025934738492783</v>
+      </c>
+      <c r="S2">
+        <v>1.301759981008928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8162485449574035</v>
+        <v>0.7883873943432889</v>
       </c>
       <c r="C3">
-        <v>0.1961992503330237</v>
+        <v>0.2073173731500901</v>
       </c>
       <c r="D3">
-        <v>0.1722528223207433</v>
+        <v>0.1722964487588996</v>
       </c>
       <c r="E3">
-        <v>1.140378711371042</v>
+        <v>1.140982347452649</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3478048203436828</v>
+        <v>0.3111460003207753</v>
       </c>
       <c r="H3">
-        <v>0.004284000454617853</v>
+        <v>0.004336329488810464</v>
       </c>
       <c r="I3">
-        <v>0.0006774107117299977</v>
+        <v>0.0009117628050838711</v>
       </c>
       <c r="J3">
-        <v>0.3012176751204052</v>
+        <v>0.3264242513932132</v>
       </c>
       <c r="K3">
-        <v>0.2695248259538552</v>
+        <v>0.2503872913566276</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1474786243664887</v>
       </c>
       <c r="M3">
-        <v>0.9530460147135216</v>
+        <v>0.05377179622091433</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9533025923078355</v>
       </c>
       <c r="P3">
-        <v>0.732619687105375</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.316274592279782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7244529409700586</v>
+      </c>
+      <c r="S3">
+        <v>1.255658670299468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7415176437291962</v>
+        <v>0.7188922592414713</v>
       </c>
       <c r="C4">
-        <v>0.1811697889496884</v>
+        <v>0.1890045099968063</v>
       </c>
       <c r="D4">
-        <v>0.1564022386887558</v>
+        <v>0.1564632726338147</v>
       </c>
       <c r="E4">
-        <v>1.037253370287488</v>
+        <v>1.038150167678353</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.335367837428393</v>
+        <v>0.30110176077293</v>
       </c>
       <c r="H4">
-        <v>0.003154529156238484</v>
+        <v>0.003224442925543913</v>
       </c>
       <c r="I4">
-        <v>0.0005086892494001738</v>
+        <v>0.0007089489837186491</v>
       </c>
       <c r="J4">
-        <v>0.2978595633799372</v>
+        <v>0.3225817140904113</v>
       </c>
       <c r="K4">
-        <v>0.2683245746114835</v>
+        <v>0.2503747804371095</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1501448002115033</v>
       </c>
       <c r="M4">
-        <v>0.8677189568691119</v>
+        <v>0.05237093166385876</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8681987939576175</v>
       </c>
       <c r="P4">
-        <v>0.748370624575001</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.282701304223139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7384352012676629</v>
+      </c>
+      <c r="S4">
+        <v>1.228121923580915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7103008116126261</v>
+        <v>0.6897804150968057</v>
       </c>
       <c r="C5">
-        <v>0.1754727382704289</v>
+        <v>0.1820226554081614</v>
       </c>
       <c r="D5">
-        <v>0.1499651640034187</v>
+        <v>0.1500320821952386</v>
       </c>
       <c r="E5">
-        <v>0.9952371887045928</v>
+        <v>0.9962471994876836</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3300141742222635</v>
+        <v>0.2967341316559242</v>
       </c>
       <c r="H5">
-        <v>0.00273419388314422</v>
+        <v>0.002808999893101349</v>
       </c>
       <c r="I5">
-        <v>0.0005369099905880859</v>
+        <v>0.0007306777654747521</v>
       </c>
       <c r="J5">
-        <v>0.2963591846321734</v>
+        <v>0.3208414680523433</v>
       </c>
       <c r="K5">
-        <v>0.2675922762761118</v>
+        <v>0.2501244319225044</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1511114299541454</v>
       </c>
       <c r="M5">
-        <v>0.8329194706807073</v>
+        <v>0.0518608077695788</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8334836279762783</v>
       </c>
       <c r="P5">
-        <v>0.7549226952469414</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.268136400653972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7442949100866656</v>
+      </c>
+      <c r="S5">
+        <v>1.215968777945321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7042928085716653</v>
+        <v>0.6841332941141332</v>
       </c>
       <c r="C6">
-        <v>0.1750096081963335</v>
+        <v>0.181378856466992</v>
       </c>
       <c r="D6">
-        <v>0.1488966531915992</v>
+        <v>0.1489645133759154</v>
       </c>
       <c r="E6">
-        <v>0.9882469441827908</v>
+        <v>0.989275829652982</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3286931975647178</v>
+        <v>0.2955939808351431</v>
       </c>
       <c r="H6">
-        <v>0.00266573858709318</v>
+        <v>0.002741247856718143</v>
       </c>
       <c r="I6">
-        <v>0.0006285130336998179</v>
+        <v>0.0008376765533739672</v>
       </c>
       <c r="J6">
-        <v>0.2958882491441273</v>
+        <v>0.320324760193671</v>
       </c>
       <c r="K6">
-        <v>0.2671257132108558</v>
+        <v>0.2497560529591638</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1511019535079008</v>
       </c>
       <c r="M6">
-        <v>0.827140883314172</v>
+        <v>0.05170545466866372</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8277194315944598</v>
       </c>
       <c r="P6">
-        <v>0.7560214640296543</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.264337330960288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7453077192712083</v>
+      </c>
+      <c r="S6">
+        <v>1.212602526427091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7388529086686901</v>
+        <v>0.7159021785152788</v>
       </c>
       <c r="C7">
-        <v>0.1824088621466444</v>
+        <v>0.1899694005943644</v>
       </c>
       <c r="D7">
-        <v>0.1563126532759185</v>
+        <v>0.156371784836054</v>
       </c>
       <c r="E7">
-        <v>1.036647311857081</v>
+        <v>1.037516230492869</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3341034017921416</v>
+        <v>0.3025896130980854</v>
       </c>
       <c r="H7">
-        <v>0.003145642234148927</v>
+        <v>0.003213314084092866</v>
       </c>
       <c r="I7">
-        <v>0.0007260020108796894</v>
+        <v>0.0009685134155361652</v>
       </c>
       <c r="J7">
-        <v>0.2972253973047998</v>
+        <v>0.3179162243553009</v>
       </c>
       <c r="K7">
-        <v>0.2673659619620388</v>
+        <v>0.2491545133132362</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1495396470064136</v>
       </c>
       <c r="M7">
-        <v>0.8672542439776691</v>
+        <v>0.0520567186195855</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8669230886008847</v>
       </c>
       <c r="P7">
-        <v>0.7484769429754028</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.278691371114519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7386793301141239</v>
+      </c>
+      <c r="S7">
+        <v>1.221887731512822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8926753513013352</v>
+        <v>0.8578315665008063</v>
       </c>
       <c r="C8">
-        <v>0.2141288488757738</v>
+        <v>0.2278151239225821</v>
       </c>
       <c r="D8">
-        <v>0.1892496016421035</v>
+        <v>0.1892621683468292</v>
       </c>
       <c r="E8">
-        <v>1.250478737707184</v>
+        <v>1.250643013549237</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3597559023662242</v>
+        <v>0.3296272411663779</v>
       </c>
       <c r="H8">
-        <v>0.005632304006196298</v>
+        <v>0.005647891017227624</v>
       </c>
       <c r="I8">
-        <v>0.001237186233117527</v>
+        <v>0.001538053607413659</v>
       </c>
       <c r="J8">
-        <v>0.3041756351088409</v>
+        <v>0.3166369748588025</v>
       </c>
       <c r="K8">
-        <v>0.2697003627840537</v>
+        <v>0.2482607714819629</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1436778597854946</v>
       </c>
       <c r="M8">
-        <v>1.044019078869553</v>
+        <v>0.05502944608221227</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.04127859194395</v>
       </c>
       <c r="P8">
-        <v>0.716346765061612</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.34798483387182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7105041458416785</v>
+      </c>
+      <c r="S8">
+        <v>1.272996536580706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.195588164231481</v>
+        <v>1.137413845920008</v>
       </c>
       <c r="C9">
-        <v>0.2753860118244944</v>
+        <v>0.3030822769366353</v>
       </c>
       <c r="D9">
-        <v>0.2548080023006492</v>
+        <v>0.2546823177086992</v>
       </c>
       <c r="E9">
-        <v>1.671683238958195</v>
+        <v>1.670289774075258</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4148711639369083</v>
+        <v>0.3774246556315717</v>
       </c>
       <c r="H9">
-        <v>0.01204715431740339</v>
+        <v>0.0118814174917527</v>
       </c>
       <c r="I9">
-        <v>0.003126506706969678</v>
+        <v>0.003284884846483926</v>
       </c>
       <c r="J9">
-        <v>0.3207244629669788</v>
+        <v>0.3299114952356632</v>
       </c>
       <c r="K9">
-        <v>0.2774244983981156</v>
+        <v>0.2501144991697508</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1341571018048597</v>
       </c>
       <c r="M9">
-        <v>1.390250069265079</v>
+        <v>0.06562118624568214</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.385415906602816</v>
       </c>
       <c r="P9">
-        <v>0.6576865356716013</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.500122775286087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.659331573315832</v>
+      </c>
+      <c r="S9">
+        <v>1.395138227409291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.411113954312668</v>
+        <v>1.333389962985933</v>
       </c>
       <c r="C10">
-        <v>0.3196118636342931</v>
+        <v>0.3554831344939657</v>
       </c>
       <c r="D10">
-        <v>0.3037211807747155</v>
+        <v>0.3034322396943736</v>
       </c>
       <c r="E10">
-        <v>1.883110051838003</v>
+        <v>1.880265095445594</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4501610491475105</v>
+        <v>0.4242226767727573</v>
       </c>
       <c r="H10">
-        <v>0.01738519133520988</v>
+        <v>0.01700736171195771</v>
       </c>
       <c r="I10">
-        <v>0.005432652663597715</v>
+        <v>0.005355283063305905</v>
       </c>
       <c r="J10">
-        <v>0.3306302119113411</v>
+        <v>0.3152098557844738</v>
       </c>
       <c r="K10">
-        <v>0.2807064687210357</v>
+        <v>0.2475000013236794</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1259398771054769</v>
       </c>
       <c r="M10">
-        <v>1.637510306514059</v>
+        <v>0.0739989910740384</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.625970021938343</v>
       </c>
       <c r="P10">
-        <v>0.6188060307974901</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.596108699226363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.6274162035598536</v>
+      </c>
+      <c r="S10">
+        <v>1.45598463885932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.466961174866924</v>
+        <v>1.383508439516504</v>
       </c>
       <c r="C11">
-        <v>0.3198540455535692</v>
+        <v>0.3505480248638833</v>
       </c>
       <c r="D11">
-        <v>0.3257392694072223</v>
+        <v>0.325361224991525</v>
       </c>
       <c r="E11">
-        <v>1.207236604760311</v>
+        <v>1.204521474809042</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4085583983686689</v>
+        <v>0.4192504030235966</v>
       </c>
       <c r="H11">
-        <v>0.03330710401197834</v>
+        <v>0.03288829208356603</v>
       </c>
       <c r="I11">
-        <v>0.006465854069225507</v>
+        <v>0.00637358824078138</v>
       </c>
       <c r="J11">
-        <v>0.3068784053340323</v>
+        <v>0.2555629606982066</v>
       </c>
       <c r="K11">
-        <v>0.2560412890622636</v>
+        <v>0.2223806160127246</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1141614821063968</v>
       </c>
       <c r="M11">
-        <v>1.68588239683092</v>
+        <v>0.06796956296096113</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.663144006564636</v>
       </c>
       <c r="P11">
-        <v>0.6154095775605519</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.458313281119842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.6340068802293786</v>
+      </c>
+      <c r="S11">
+        <v>1.300776120662078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.471964869018024</v>
+        <v>1.389301436711861</v>
       </c>
       <c r="C12">
-        <v>0.3089371496823503</v>
+        <v>0.3348026299734386</v>
       </c>
       <c r="D12">
-        <v>0.3339420698802229</v>
+        <v>0.3335373121749683</v>
       </c>
       <c r="E12">
-        <v>0.7226293176511831</v>
+        <v>0.7204111822717607</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3691139544360453</v>
+        <v>0.3963594325426953</v>
       </c>
       <c r="H12">
-        <v>0.06979835491722497</v>
+        <v>0.06939790387303901</v>
       </c>
       <c r="I12">
-        <v>0.006487872119294913</v>
+        <v>0.00637259951295821</v>
       </c>
       <c r="J12">
-        <v>0.2860141725485335</v>
+        <v>0.2261334281106784</v>
       </c>
       <c r="K12">
-        <v>0.2366163645308674</v>
+        <v>0.204938263058164</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1073202973400527</v>
       </c>
       <c r="M12">
-        <v>1.674173329684635</v>
+        <v>0.06205598826889158</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.646514894325946</v>
       </c>
       <c r="P12">
-        <v>0.6236751655085833</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.331040320110617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.6487833712215192</v>
+      </c>
+      <c r="S12">
+        <v>1.175655494932101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.43457128925732</v>
+        <v>1.35893278126872</v>
       </c>
       <c r="C13">
-        <v>0.2910249731358192</v>
+        <v>0.3130534245375145</v>
       </c>
       <c r="D13">
-        <v>0.3318531269600129</v>
+        <v>0.3314796645680502</v>
       </c>
       <c r="E13">
-        <v>0.3570661313976373</v>
+        <v>0.3555046642069115</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3272188847451787</v>
+        <v>0.3507179239391007</v>
       </c>
       <c r="H13">
-        <v>0.1234919675567312</v>
+        <v>0.1231533367171807</v>
       </c>
       <c r="I13">
-        <v>0.00604853026981278</v>
+        <v>0.00598972368044759</v>
       </c>
       <c r="J13">
-        <v>0.2651807450458818</v>
+        <v>0.2168534679294183</v>
       </c>
       <c r="K13">
-        <v>0.2185690122358714</v>
+        <v>0.1912832068191861</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1030076032399183</v>
       </c>
       <c r="M13">
-        <v>1.615737676255407</v>
+        <v>0.05576995016380693</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.589827504018814</v>
       </c>
       <c r="P13">
-        <v>0.6407596238692932</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.198561765192693</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.6684313692996753</v>
+      </c>
+      <c r="S13">
+        <v>1.06376609691101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.388704163675726</v>
+        <v>1.320693178523214</v>
       </c>
       <c r="C14">
-        <v>0.2758907213809323</v>
+        <v>0.2956370886349191</v>
       </c>
       <c r="D14">
-        <v>0.3257386719506457</v>
+        <v>0.3254114260668928</v>
       </c>
       <c r="E14">
-        <v>0.1732309475957692</v>
+        <v>0.1721129146995253</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2969223143195023</v>
+        <v>0.3102773780111789</v>
       </c>
       <c r="H14">
-        <v>0.1715352808491559</v>
+        <v>0.1712524389219396</v>
       </c>
       <c r="I14">
-        <v>0.005628829913695732</v>
+        <v>0.005654618976969061</v>
       </c>
       <c r="J14">
-        <v>0.2506205991463801</v>
+        <v>0.2173399434733625</v>
       </c>
       <c r="K14">
-        <v>0.2065061038224201</v>
+        <v>0.1831350849551825</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1008883717079456</v>
       </c>
       <c r="M14">
-        <v>1.554052939803341</v>
+        <v>0.05122919820014893</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.532172589219982</v>
       </c>
       <c r="P14">
-        <v>0.6569573523062928</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.103785462056251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.6841835275789592</v>
+      </c>
+      <c r="S14">
+        <v>0.9901144628302205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.367686113268377</v>
+        <v>1.302754980523162</v>
       </c>
       <c r="C15">
-        <v>0.2711813060682715</v>
+        <v>0.2905075785468085</v>
       </c>
       <c r="D15">
-        <v>0.3220564422284014</v>
+        <v>0.3217517949494066</v>
       </c>
       <c r="E15">
-        <v>0.1374510901724157</v>
+        <v>0.1364578640030807</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2885485795821126</v>
+        <v>0.2964390334622564</v>
       </c>
       <c r="H15">
-        <v>0.183616187147905</v>
+        <v>0.1833558604458858</v>
       </c>
       <c r="I15">
-        <v>0.005531756695270396</v>
+        <v>0.00561572151223011</v>
       </c>
       <c r="J15">
-        <v>0.2468714321209546</v>
+        <v>0.2203701084178817</v>
       </c>
       <c r="K15">
-        <v>0.2035234720593344</v>
+        <v>0.1815082420541181</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1006787833613956</v>
       </c>
       <c r="M15">
-        <v>1.529213831520678</v>
+        <v>0.04994088687943687</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.509512668507938</v>
       </c>
       <c r="P15">
-        <v>0.662516832874033</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.078150281484568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.6887293752493235</v>
+      </c>
+      <c r="S15">
+        <v>0.972606239036935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.282145188927103</v>
+        <v>1.227786938559404</v>
       </c>
       <c r="C16">
-        <v>0.2570954749673575</v>
+        <v>0.2768849549848653</v>
       </c>
       <c r="D16">
-        <v>0.3012162636041182</v>
+        <v>0.3010120238949554</v>
       </c>
       <c r="E16">
-        <v>0.1346293590982448</v>
+        <v>0.1339140600339874</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2817661048155955</v>
+        <v>0.26511823571024</v>
       </c>
       <c r="H16">
-        <v>0.1693041385233016</v>
+        <v>0.1691327708384449</v>
       </c>
       <c r="I16">
-        <v>0.004745385168158478</v>
+        <v>0.004988643942144044</v>
       </c>
       <c r="J16">
-        <v>0.246586582603463</v>
+        <v>0.2486592843345434</v>
       </c>
       <c r="K16">
-        <v>0.2052555114850847</v>
+        <v>0.1866009476943837</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.104327909626388</v>
       </c>
       <c r="M16">
-        <v>1.436287677945757</v>
+        <v>0.04884127978863972</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.426531126210051</v>
       </c>
       <c r="P16">
-        <v>0.6736077097319182</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.062998895690043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.6922188355113335</v>
+      </c>
+      <c r="S16">
+        <v>0.9831403313765179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.240761702777746</v>
+        <v>1.189823273455715</v>
       </c>
       <c r="C17">
-        <v>0.2542888545124669</v>
+        <v>0.2751733084694763</v>
       </c>
       <c r="D17">
-        <v>0.2885521085773064</v>
+        <v>0.2883932459439507</v>
       </c>
       <c r="E17">
-        <v>0.2166324143147946</v>
+        <v>0.2159699517825899</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.2924456134060733</v>
+        <v>0.2649086237002862</v>
       </c>
       <c r="H17">
-        <v>0.1309413187404544</v>
+        <v>0.1308062112870942</v>
       </c>
       <c r="I17">
-        <v>0.004390623710550656</v>
+        <v>0.004706570545155664</v>
       </c>
       <c r="J17">
-        <v>0.2540615556093186</v>
+        <v>0.2688616815993186</v>
       </c>
       <c r="K17">
-        <v>0.212921762556455</v>
+        <v>0.1946597491164432</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1084508756139275</v>
       </c>
       <c r="M17">
-        <v>1.397635245429143</v>
+        <v>0.05017241489680657</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.392109631174122</v>
       </c>
       <c r="P17">
-        <v>0.6737296072547849</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.101187356886683</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.6880016124439408</v>
+      </c>
+      <c r="S17">
+        <v>1.028373148979327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.2344636171714</v>
+        <v>1.182164388956807</v>
       </c>
       <c r="C18">
-        <v>0.2600351271417338</v>
+        <v>0.2833885054174914</v>
       </c>
       <c r="D18">
-        <v>0.2813991695382896</v>
+        <v>0.2812543132041867</v>
       </c>
       <c r="E18">
-        <v>0.4436198493324426</v>
+        <v>0.4428341619253118</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3209036826014682</v>
+        <v>0.2866012366580719</v>
       </c>
       <c r="H18">
-        <v>0.07864040173107867</v>
+        <v>0.07850843972899924</v>
       </c>
       <c r="I18">
-        <v>0.004087977555101041</v>
+        <v>0.004374977208055242</v>
       </c>
       <c r="J18">
-        <v>0.2697028315716281</v>
+        <v>0.289259445878038</v>
       </c>
       <c r="K18">
-        <v>0.2275373353255965</v>
+        <v>0.20760867449955</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1140214571866967</v>
       </c>
       <c r="M18">
-        <v>1.401227887154164</v>
+        <v>0.05413689271792954</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.397443616719983</v>
       </c>
       <c r="P18">
-        <v>0.665324885154341</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.194222967841569</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.676461392516039</v>
+      </c>
+      <c r="S18">
+        <v>1.117378980296849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.252654510666474</v>
+        <v>1.19571167728563</v>
       </c>
       <c r="C19">
-        <v>0.2751449068288849</v>
+        <v>0.3024966838108014</v>
       </c>
       <c r="D19">
-        <v>0.2791626073909725</v>
+        <v>0.2790085830312847</v>
       </c>
       <c r="E19">
-        <v>0.8675097070486117</v>
+        <v>0.8663975948357745</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3611638752978763</v>
+        <v>0.3217568476780315</v>
       </c>
       <c r="H19">
-        <v>0.0353724486259992</v>
+        <v>0.03521274490530857</v>
       </c>
       <c r="I19">
-        <v>0.004367576290053243</v>
+        <v>0.004660445142785186</v>
       </c>
       <c r="J19">
-        <v>0.2903085761946045</v>
+        <v>0.3099635433113619</v>
       </c>
       <c r="K19">
-        <v>0.2459192156032728</v>
+        <v>0.2229765303484861</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1201103284213989</v>
       </c>
       <c r="M19">
-        <v>1.438986780874188</v>
+        <v>0.05970534414697859</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.435569958877863</v>
       </c>
       <c r="P19">
-        <v>0.653509040447819</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.322730444574006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.6621746396322017</v>
+      </c>
+      <c r="S19">
+        <v>1.234580032700336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.347240309935671</v>
+        <v>1.276418369416831</v>
       </c>
       <c r="C20">
-        <v>0.3120565204913675</v>
+        <v>0.3474125785143656</v>
       </c>
       <c r="D20">
-        <v>0.2908001626540937</v>
+        <v>0.2905705206642466</v>
       </c>
       <c r="E20">
-        <v>1.823191327142339</v>
+        <v>1.820867856404718</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4367737877663274</v>
+        <v>0.3979226912620817</v>
       </c>
       <c r="H20">
-        <v>0.01584767668666753</v>
+        <v>0.01554692168940042</v>
       </c>
       <c r="I20">
-        <v>0.005450470369949834</v>
+        <v>0.005622153024543053</v>
       </c>
       <c r="J20">
-        <v>0.325918475022192</v>
+        <v>0.3304373626671833</v>
       </c>
       <c r="K20">
-        <v>0.2767456287755401</v>
+        <v>0.2465206913581888</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1274436493146531</v>
       </c>
       <c r="M20">
-        <v>1.572263357019949</v>
+        <v>0.07102543691223673</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.565559555678732</v>
       </c>
       <c r="P20">
-        <v>0.6292821160215762</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.557750921268195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.6359601009560798</v>
+      </c>
+      <c r="S20">
+        <v>1.436041367041582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.52041808444244</v>
+        <v>1.425175054384198</v>
       </c>
       <c r="C21">
-        <v>0.3495747940085607</v>
+        <v>0.3852962041569299</v>
       </c>
       <c r="D21">
-        <v>0.3287275619192371</v>
+        <v>0.328283995332157</v>
       </c>
       <c r="E21">
-        <v>2.141239535514529</v>
+        <v>2.136911474042719</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4756243128704654</v>
+        <v>0.5006413414828188</v>
       </c>
       <c r="H21">
-        <v>0.02117912318880388</v>
+        <v>0.02058645172816664</v>
       </c>
       <c r="I21">
-        <v>0.007488382227584189</v>
+        <v>0.007300779560977411</v>
       </c>
       <c r="J21">
-        <v>0.3393721869699391</v>
+        <v>0.2614581858107172</v>
       </c>
       <c r="K21">
-        <v>0.2848213195118987</v>
+        <v>0.2432487817199807</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1210001520751902</v>
       </c>
       <c r="M21">
-        <v>1.773576922326612</v>
+        <v>0.07742922013504838</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.745341049593634</v>
       </c>
       <c r="P21">
-        <v>0.5986281723704341</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.668614955583877</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.6129863985043293</v>
+      </c>
+      <c r="S21">
+        <v>1.471407882411853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.634199271327475</v>
+        <v>1.522332022086204</v>
       </c>
       <c r="C22">
-        <v>0.3712863447117059</v>
+        <v>0.4062344524208186</v>
       </c>
       <c r="D22">
-        <v>0.3537117363475772</v>
+        <v>0.3531084949680263</v>
       </c>
       <c r="E22">
-        <v>2.298961565149199</v>
+        <v>2.293274642193779</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4996958110561422</v>
+        <v>0.5756905588158929</v>
       </c>
       <c r="H22">
-        <v>0.02467980974072947</v>
+        <v>0.02387416022580346</v>
       </c>
       <c r="I22">
-        <v>0.008716312790658876</v>
+        <v>0.008179062518028246</v>
       </c>
       <c r="J22">
-        <v>0.3475973381818989</v>
+        <v>0.2209710093885491</v>
       </c>
       <c r="K22">
-        <v>0.2900433767643165</v>
+        <v>0.2406175043885739</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1167863801177056</v>
       </c>
       <c r="M22">
-        <v>1.901631795452147</v>
+        <v>0.08167152340103101</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.857658045494048</v>
       </c>
       <c r="P22">
-        <v>0.5796035982091894</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.737075000189293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.599656989841634</v>
+      </c>
+      <c r="S22">
+        <v>1.486947386341853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.576233488142492</v>
+        <v>1.474269582964439</v>
       </c>
       <c r="C23">
-        <v>0.3580495096736342</v>
+        <v>0.39425737177217</v>
       </c>
       <c r="D23">
-        <v>0.3403617495267497</v>
+        <v>0.3398533719075232</v>
       </c>
       <c r="E23">
-        <v>2.214763052294671</v>
+        <v>2.209882654582714</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4882069605803991</v>
+        <v>0.5283113166812683</v>
       </c>
       <c r="H23">
-        <v>0.02279236878092283</v>
+        <v>0.02211294932865915</v>
       </c>
       <c r="I23">
-        <v>0.00777844142328199</v>
+        <v>0.007378366895623323</v>
       </c>
       <c r="J23">
-        <v>0.3438940145658478</v>
+        <v>0.2492321255856709</v>
       </c>
       <c r="K23">
-        <v>0.2883335096327464</v>
+        <v>0.2437727111487433</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.119596683131336</v>
       </c>
       <c r="M23">
-        <v>1.833268821411707</v>
+        <v>0.08013647609108077</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.799994407825579</v>
       </c>
       <c r="P23">
-        <v>0.5895106546516402</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.704854814698507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.6058038709417914</v>
+      </c>
+      <c r="S23">
+        <v>1.488878377583006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.352035150628268</v>
+        <v>1.280750251300049</v>
       </c>
       <c r="C24">
-        <v>0.3110308516655493</v>
+        <v>0.3466055941754576</v>
       </c>
       <c r="D24">
-        <v>0.2902305747413578</v>
+        <v>0.2900003913996869</v>
       </c>
       <c r="E24">
-        <v>1.897300391821048</v>
+        <v>1.89491245395746</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4435230652575513</v>
+        <v>0.403659672440142</v>
       </c>
       <c r="H24">
-        <v>0.01619236352073017</v>
+        <v>0.01588562336758692</v>
       </c>
       <c r="I24">
-        <v>0.005035102884490605</v>
+        <v>0.00510347041072734</v>
       </c>
       <c r="J24">
-        <v>0.3293492382294829</v>
+        <v>0.3342993652676682</v>
       </c>
       <c r="K24">
-        <v>0.2806322250779694</v>
+        <v>0.2499372373958941</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1287923006991747</v>
       </c>
       <c r="M24">
-        <v>1.574790456694643</v>
+        <v>0.07226161739708914</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.568238040923802</v>
       </c>
       <c r="P24">
-        <v>0.6286016318157017</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.579243220245019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.6345954474815656</v>
+      </c>
+      <c r="S24">
+        <v>1.456235749479873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.109776246520141</v>
+        <v>1.058745446687709</v>
       </c>
       <c r="C25">
-        <v>0.2610722177731191</v>
+        <v>0.2855931310532611</v>
       </c>
       <c r="D25">
-        <v>0.2369413887006289</v>
+        <v>0.2368645109274183</v>
       </c>
       <c r="E25">
-        <v>1.557358902436746</v>
+        <v>1.556473269142515</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3974797696949253</v>
+        <v>0.358188727123661</v>
       </c>
       <c r="H25">
-        <v>0.01011787707236337</v>
+        <v>0.01001749975882633</v>
       </c>
       <c r="I25">
-        <v>0.002846564045734468</v>
+        <v>0.003155282388737746</v>
       </c>
       <c r="J25">
-        <v>0.3149343970511467</v>
+        <v>0.3307452004921529</v>
       </c>
       <c r="K25">
-        <v>0.2734660519851921</v>
+        <v>0.2484043180006026</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1362110110880757</v>
       </c>
       <c r="M25">
-        <v>1.296578668678166</v>
+        <v>0.06193320714955952</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.29354705646881</v>
       </c>
       <c r="P25">
-        <v>0.6732354465340453</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.450961508488206</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6728957474645689</v>
+      </c>
+      <c r="S25">
+        <v>1.358050533418464</v>
       </c>
     </row>
   </sheetData>
